--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Element</t>
   </si>
@@ -137,9 +137,6 @@
     <t>E'</t>
   </si>
   <si>
-    <t>Angle Error</t>
-  </si>
-  <si>
     <t>E' Error</t>
   </si>
   <si>
@@ -171,12 +168,34 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>MeanError</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>WidthError</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>PeakError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -202,12 +221,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,11 +247,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,1427 +966,1380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="10"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="10"/>
+    <col min="21" max="21" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="2">
         <v>26907.599999999999</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="2">
         <v>45.741199999999999</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="2">
         <v>7683.02</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="2">
         <v>0.40699099999999999</v>
       </c>
-      <c r="H2">
+      <c r="G2" s="2">
         <v>217.97399999999999</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="2">
         <v>0.33175700000000002</v>
       </c>
+      <c r="I2" s="2">
+        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/40.96</f>
+        <v>358929.75267733698</v>
+      </c>
       <c r="J2" s="2">
-        <f xml:space="preserve"> SQRT(2*3.14159)*H2*D2/40.96</f>
-        <v>358929.75267733698</v>
-      </c>
-      <c r="K2">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(D2*I2,2)+POWER(H2*E2,2)))</f>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2,2)+POWER(G2*D2,2)))</f>
         <v>818.97943668253686</v>
       </c>
-      <c r="L2">
-        <f>J2/C2</f>
+      <c r="K2" s="2">
+        <f>I2/B2</f>
         <v>5982.1625446222833</v>
       </c>
-      <c r="M2">
-        <f>K2/C2</f>
+      <c r="L2" s="2">
+        <f>J2/B2</f>
         <v>13.64965727804228</v>
       </c>
-      <c r="N2">
-        <f>(F2+61.6)/11540.4</f>
+      <c r="M2" s="12">
+        <f>(E2+61.6)/11540.4</f>
         <v>0.67108765727357811</v>
       </c>
-      <c r="O2">
-        <f>SQRT(POWER(G2/11540.4,2)+POWER((-61.6-F2)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+      <c r="N2" s="12">
+        <f>SQRT(POWER(F2/11540.4,2)+POWER((-61.6-E2)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>1.2403024496755212E-4</v>
       </c>
-      <c r="P2">
+      <c r="O2" s="12">
         <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="4">
         <v>0.38429999999999997</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R15" si="0">L2/(5982.1624*Q2*7.8344E+23*0.00278468)</f>
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:Q15" si="0">K2/(5982.1624*P2*7.8344E+23*0.00278468)</f>
         <v>1.1927477030300059E-21</v>
       </c>
-      <c r="S2">
-        <f>R2*1E+24</f>
+      <c r="R2" s="9">
+        <f>Q2*1E+24</f>
         <v>1192.7477030300058</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T15" si="1">SQRT(POWER(M2/(5982.16254*Q2*7.8344E+23*0.00278468),2)+POWER(L2*13.6496/(POWER(5982.16254,2)*Q2*7.8344E+23*0.00278468),2)+POWER(L2*7.8344E+22/(5982.16254*Q2*POWER(7.8344E+23,2)*0.00278468),2)+POWER(L2*0.000030855/(5982.16254*Q2*7.8344E+23*POWER(0.00278468,2)),2))</f>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:S15" si="1">SQRT(POWER(L2/(5982.16254*P2*7.8344E+23*0.00278468),2)+POWER(K2*13.6496/(POWER(5982.16254,2)*P2*7.8344E+23*0.00278468),2)+POWER(K2*7.8344E+22/(5982.16254*P2*POWER(7.8344E+23,2)*0.00278468),2)+POWER(K2*0.000030855/(5982.16254*P2*7.8344E+23*POWER(0.00278468,2)),2))</f>
         <v>1.2006641986364155E-22</v>
       </c>
-      <c r="U2">
-        <f>T2*1E+24</f>
+      <c r="T2" s="9">
+        <f>S2*1E+24</f>
         <v>120.06641986364154</v>
       </c>
-      <c r="V2">
-        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W2,2)*(W2+1/W2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+      <c r="U2" s="12">
+        <f t="shared" ref="U2:U15" si="2">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V2,2)*(V2+1/V2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
-      <c r="W2">
+      <c r="V2" s="2">
         <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
         <v>200</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="2">
         <v>94.608699999999999</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="2">
         <v>16.649699999999999</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="2">
         <v>7384.2</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="2">
         <v>29.849499999999999</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="2">
         <v>195.88800000000001</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="2">
         <v>36.712200000000003</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J15" si="2" xml:space="preserve"> SQRT(2*3.14159)*H3*D3/40.96</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I15" si="3" xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
         <v>1134.1453327589772</v>
       </c>
-      <c r="K3">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(D3*I3,2)+POWER(H3*E3,2)))</f>
+      <c r="J3" s="2">
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C3*H3,2)+POWER(G3*D3,2)))</f>
         <v>291.57632810395484</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L15" si="3">J3/C3</f>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K15" si="4">I3/B3</f>
         <v>5.6707266637948859</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M15" si="4">K3/C3</f>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L15" si="5">J3/B3</f>
         <v>1.4578816405197741</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N15" si="5">(F3+61.6)/11540.4</f>
+      <c r="M3" s="12">
+        <f t="shared" ref="M3:M15" si="6">(E3+61.6)/11540.4</f>
         <v>0.64519427402862994</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O15" si="6">SQRT(POWER(G3/11540.4,2)+POWER((-61.6-F3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N15" si="7">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>2.5891360157888157E-3</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P15" si="7">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="O3" s="12">
+        <f t="shared" ref="O3:O15" si="8">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.65789319321946138</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="4">
         <v>0.40589999999999998</v>
       </c>
-      <c r="R3">
+      <c r="Q3" s="2">
         <f t="shared" si="0"/>
         <v>1.0704846075148787E-24</v>
       </c>
-      <c r="S3">
-        <f>R3*1E+24</f>
+      <c r="R3" s="9">
+        <f>Q3*1E+24</f>
         <v>1.0704846075148786</v>
       </c>
-      <c r="T3">
+      <c r="S3" s="2">
         <f t="shared" si="1"/>
         <v>2.9554439238062503E-25</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U15" si="8">T3*1E+24</f>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3:T15" si="9">S3*1E+24</f>
         <v>0.29554439238062502</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V15" si="9">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W3,2)*(W3+1/W3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+      <c r="U3" s="12">
+        <f t="shared" si="2"/>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W15" si="10">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V15" si="10">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
         <v>600</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="2">
         <v>282.738</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="2">
         <v>74.260800000000003</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="2">
         <v>6963.38</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="2">
         <v>28.923200000000001</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="2">
         <v>237.184</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="2">
         <v>42.040399999999998</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="2"/>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
         <v>4103.9246031982575</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K15" si="11">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(D4*I4,2)+POWER(H4*E4,2)))</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J15" si="11">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
         <v>1300.3760788032978</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
+      <c r="K4" s="2">
+        <f t="shared" si="4"/>
         <v>6.8398743386637628</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="4"/>
+      <c r="L4" s="2">
+        <f t="shared" si="5"/>
         <v>2.1672934646721629</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
+      <c r="M4" s="12">
+        <f t="shared" si="6"/>
         <v>0.60872933347197677</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="6"/>
+      <c r="N4" s="12">
+        <f t="shared" si="7"/>
         <v>2.5087903814642065E-3</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
+      <c r="O4" s="12">
+        <f t="shared" si="8"/>
         <v>0.62182355639796505</v>
       </c>
-      <c r="Q4">
+      <c r="P4" s="4">
         <v>0.43380000000000002</v>
       </c>
-      <c r="R4">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>1.208145774652378E-24</v>
       </c>
-      <c r="S4">
-        <f>R4*1E+24</f>
+      <c r="R4" s="9">
+        <f>Q4*1E+24</f>
         <v>1.208145774652378</v>
       </c>
-      <c r="T4">
+      <c r="S4" s="2">
         <f t="shared" si="1"/>
         <v>4.0165939854135526E-25</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="8"/>
+      <c r="T4" s="9">
+        <f t="shared" si="9"/>
         <v>0.40165939854135524</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="9"/>
+      <c r="U4" s="12">
+        <f t="shared" si="2"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="W4">
+      <c r="V4" s="2">
         <f t="shared" si="10"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
         <v>800</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="2">
         <v>1034.1500000000001</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="2">
         <v>1149.4000000000001</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2">
         <v>6497.06</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="2">
         <v>74.384100000000004</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="2">
         <v>319.85899999999998</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="2">
         <v>117.879</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
         <v>20242.861990075355</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="2">
         <f t="shared" si="11"/>
         <v>23703.394516886779</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
+      <c r="K5" s="2">
+        <f t="shared" si="4"/>
         <v>25.303577487594193</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="4"/>
+      <c r="L5" s="2">
+        <f t="shared" si="5"/>
         <v>29.629243146108475</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
+      <c r="M5" s="12">
+        <f t="shared" si="6"/>
         <v>0.5683217219507124</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
+      <c r="N5" s="12">
+        <f t="shared" si="7"/>
         <v>6.4464587683093575E-3</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
+      <c r="O5" s="12">
+        <f t="shared" si="8"/>
         <v>0.57072967889430926</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="4">
         <v>0.44819999999999999</v>
       </c>
-      <c r="R5">
+      <c r="Q5" s="2">
         <f t="shared" si="0"/>
         <v>4.3258438540817665E-24</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S15" si="12">R5*1E+24</f>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5:R15" si="12">Q5*1E+24</f>
         <v>4.3258438540817661</v>
       </c>
-      <c r="T5">
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
         <v>5.0840234827141762E-24</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="8"/>
+      <c r="T5" s="9">
+        <f t="shared" si="9"/>
         <v>5.0840234827141764</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="9"/>
+      <c r="U5" s="12">
+        <f t="shared" si="2"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="W5">
+      <c r="V5" s="2">
         <f t="shared" si="10"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
         <v>1300</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="2">
         <v>796.94600000000003</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2">
         <v>340.02</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="2">
         <v>5070.46</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="2">
         <v>39.8628</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="2">
         <v>346.81900000000002</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="2">
         <v>70.671300000000002</v>
       </c>
-      <c r="J6" s="3">
-        <f xml:space="preserve"> SQRT(2*3.14159)*H6*D6/40.96</f>
+      <c r="I6" s="3">
+        <f xml:space="preserve"> SQRT(2*3.14159)*G6*C6/40.96</f>
         <v>16914.594068039365</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="2">
         <f t="shared" si="11"/>
         <v>7997.5024617275812</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
         <v>13.011226206184126</v>
       </c>
-      <c r="M6">
-        <f>K6/C6</f>
+      <c r="L6" s="2">
+        <f>J6/B6</f>
         <v>6.1519249705596781</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="5"/>
+      <c r="M6" s="12">
+        <f t="shared" si="6"/>
         <v>0.44470382309105411</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="6"/>
+      <c r="N6" s="12">
+        <f t="shared" si="7"/>
         <v>3.4555864880120766E-3</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
+      <c r="O6" s="12">
+        <f t="shared" si="8"/>
         <v>0.51346870699924607</v>
       </c>
-      <c r="Q6">
+      <c r="P6" s="4">
         <v>0.5544</v>
       </c>
-      <c r="R6">
+      <c r="Q6" s="2">
         <f t="shared" si="0"/>
         <v>1.7982736050174836E-24</v>
       </c>
-      <c r="S6">
+      <c r="R6" s="9">
         <f t="shared" si="12"/>
         <v>1.7982736050174837</v>
       </c>
-      <c r="T6">
+      <c r="S6" s="2">
         <f t="shared" si="1"/>
         <v>8.6930040499682974E-25</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="8"/>
+      <c r="T6" s="9">
+        <f t="shared" si="9"/>
         <v>0.8693004049968297</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="9"/>
+      <c r="U6" s="12">
+        <f t="shared" si="2"/>
         <v>3.855616972340576E-2</v>
       </c>
-      <c r="W6">
+      <c r="V6" s="2">
         <f t="shared" si="10"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
         <v>1500</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="2">
         <v>525.89800000000002</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="2">
         <v>145.036</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2">
         <v>4553.45</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="2">
         <v>51.093200000000003</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="2">
         <v>211.125</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="2">
         <v>49.218000000000004</v>
       </c>
-      <c r="J7" s="3">
-        <f xml:space="preserve"> SQRT(2*3.14159)*H7*D7/40.96</f>
+      <c r="I7" s="3">
+        <f xml:space="preserve"> SQRT(2*3.14159)*G7*C7/40.96</f>
         <v>6794.7109214884622</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="2">
         <f t="shared" si="11"/>
         <v>2453.6788980251054</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
+      <c r="K7" s="2">
+        <f t="shared" si="4"/>
         <v>4.5298072809923084</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
         <v>1.6357859320167369</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="5"/>
+      <c r="M7" s="12">
+        <f t="shared" si="6"/>
         <v>0.39990381615888532</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="6"/>
+      <c r="N7" s="12">
+        <f t="shared" si="7"/>
         <v>4.4283421079887603E-3</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
+      <c r="O7" s="12">
+        <f t="shared" si="8"/>
         <v>0.45695018268506399</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="4">
         <v>0.60929999999999995</v>
       </c>
-      <c r="R7">
+      <c r="Q7" s="2">
         <f t="shared" si="0"/>
         <v>5.6965158672061624E-25</v>
       </c>
-      <c r="S7">
+      <c r="R7" s="9">
         <f t="shared" si="12"/>
         <v>0.56965158672061622</v>
       </c>
-      <c r="T7">
+      <c r="S7" s="2">
         <f t="shared" si="1"/>
         <v>2.1354926240383177E-25</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="8"/>
+      <c r="T7" s="9">
+        <f t="shared" si="9"/>
         <v>0.21354926240383176</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="9"/>
+      <c r="U7" s="12">
+        <f t="shared" si="2"/>
         <v>2.8763760580229697E-2</v>
       </c>
-      <c r="W7">
+      <c r="V7" s="2">
         <f t="shared" si="10"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
         <v>1800</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="2">
         <v>285.30399999999997</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="2">
         <v>159.732</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2">
         <v>4038.02</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="2">
         <v>46.342100000000002</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="2">
         <v>145.56399999999999</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="2">
         <v>57.789200000000001</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
         <v>2541.508956638771</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="2">
         <f t="shared" si="11"/>
         <v>1744.3353668580341</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
+      <c r="K8" s="2">
+        <f t="shared" si="4"/>
         <v>1.4119494203548728</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
         <v>0.96907520381001899</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="5"/>
+      <c r="M8" s="12">
+        <f t="shared" si="6"/>
         <v>0.35524071955911407</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
+      <c r="N8" s="12">
+        <f t="shared" si="7"/>
         <v>4.0166773590436019E-3</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
+      <c r="O8" s="12">
+        <f t="shared" si="8"/>
         <v>0.40527245200170919</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="4">
         <v>0.66239999999999999</v>
       </c>
-      <c r="R8">
+      <c r="Q8" s="2">
         <f t="shared" si="0"/>
         <v>1.6332759973264725E-25</v>
       </c>
-      <c r="S8">
+      <c r="R8" s="9">
         <f t="shared" si="12"/>
         <v>0.16332759973264724</v>
       </c>
-      <c r="T8">
+      <c r="S8" s="2">
         <f t="shared" si="1"/>
         <v>1.1329667828448283E-25</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="8"/>
+      <c r="T8" s="9">
+        <f t="shared" si="9"/>
         <v>0.11329667828448282</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="9"/>
+      <c r="U8" s="12">
+        <f t="shared" si="2"/>
         <v>2.18590607833666E-2</v>
       </c>
-      <c r="W8">
+      <c r="V8" s="2">
         <f t="shared" si="10"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
         <v>2100</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="2">
         <v>343.36700000000002</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="2">
         <v>116.922</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="2">
         <v>3661.3</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="2">
         <v>12.7935</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="2">
         <v>27.7974</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="2">
         <v>12.5046</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
         <v>584.1071647539269</v>
       </c>
-      <c r="K9">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(D9*I9,2)+POWER(H9*E9,2)))</f>
+      <c r="J9" s="2">
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C9*H9,2)+POWER(G9*D9,2)))</f>
         <v>329.54946217048143</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
+      <c r="K9" s="2">
+        <f t="shared" si="4"/>
         <v>0.27814626893044136</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
         <v>0.15692831531927687</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
+      <c r="M9" s="12">
+        <f t="shared" si="6"/>
         <v>0.32259713701431497</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="6"/>
+      <c r="N9" s="12">
+        <f t="shared" si="7"/>
         <v>1.1121546138082839E-3</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
+      <c r="O9" s="12">
+        <f t="shared" si="8"/>
         <v>0.36020200208327863</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="4">
         <v>0.69750000000000001</v>
       </c>
-      <c r="R9">
+      <c r="Q9" s="2">
         <f t="shared" si="0"/>
         <v>3.0555527860326294E-26</v>
       </c>
-      <c r="S9">
+      <c r="R9" s="9">
         <f t="shared" si="12"/>
         <v>3.0555527860326295E-2</v>
       </c>
-      <c r="T9">
+      <c r="S9" s="2">
         <f t="shared" si="1"/>
         <v>1.7511337078840301E-26</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="8"/>
+      <c r="T9" s="9">
+        <f t="shared" si="9"/>
         <v>1.7511337078840301E-2</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="9"/>
+      <c r="U9" s="12">
+        <f t="shared" si="2"/>
         <v>1.7347295999573225E-2</v>
       </c>
-      <c r="W9">
+      <c r="V9" s="2">
         <f t="shared" si="10"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
         <v>7200</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="2">
         <v>506.721</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="2">
         <v>418.44499999999999</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="2">
         <v>3205.79</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="2">
         <v>44.856999999999999</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="2">
         <v>79.166300000000007</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="2">
         <v>62.915599999999998</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
         <v>2454.9296637709926</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="2">
         <f t="shared" si="11"/>
         <v>2813.5676395888436</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
+      <c r="K10" s="2">
+        <f t="shared" si="4"/>
         <v>0.34096245330152675</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
         <v>0.39077328327622829</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
+      <c r="M10" s="12">
+        <f t="shared" si="6"/>
         <v>0.28312623479255483</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
+      <c r="N10" s="12">
+        <f t="shared" si="7"/>
         <v>3.8879184587797652E-3</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
+      <c r="O10" s="12">
+        <f t="shared" si="8"/>
         <v>0.32203280762368441</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="4">
         <v>0.73260000000000003</v>
       </c>
-      <c r="R10">
+      <c r="Q10" s="2">
         <f t="shared" si="0"/>
         <v>3.5661565718836714E-26</v>
       </c>
-      <c r="S10">
+      <c r="R10" s="9">
         <f t="shared" si="12"/>
         <v>3.5661565718836712E-2</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="2">
         <f t="shared" si="1"/>
         <v>4.1028591604269557E-26</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="8"/>
+      <c r="T10" s="9">
+        <f t="shared" si="9"/>
         <v>4.1028591604269554E-2</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="9"/>
+      <c r="U10" s="12">
+        <f t="shared" si="2"/>
         <v>1.4570392197332485E-2</v>
       </c>
-      <c r="W10">
+      <c r="V10" s="2">
         <f t="shared" si="10"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
         <v>10800</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="2">
         <v>792.12199999999996</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="2">
         <v>541.94600000000003</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="2">
         <v>3100.48</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="2">
         <v>43.601900000000001</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="2">
         <v>81.465999999999994</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="2">
         <v>51.051699999999997</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
         <v>3949.1012714286776</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="2">
         <f t="shared" si="11"/>
         <v>3663.9370993803864</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
+      <c r="K11" s="2">
+        <f t="shared" si="4"/>
         <v>0.36565752513228494</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
         <v>0.33925343512781353</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
+      <c r="M11" s="12">
+        <f t="shared" si="6"/>
         <v>0.27400090118193476</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
+      <c r="N11" s="12">
+        <f t="shared" si="7"/>
         <v>3.779177099759409E-3</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
+      <c r="O11" s="12">
+        <f t="shared" si="8"/>
         <v>0.29030620042535898</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="4">
         <v>0.76590000000000003</v>
       </c>
-      <c r="R11">
+      <c r="Q11" s="2">
         <f t="shared" si="0"/>
         <v>3.6581643241920477E-26</v>
       </c>
-      <c r="S11">
+      <c r="R11" s="9">
         <f t="shared" si="12"/>
         <v>3.6581643241920474E-2</v>
       </c>
-      <c r="T11">
+      <c r="S11" s="2">
         <f t="shared" si="1"/>
         <v>3.4139169071889297E-26</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="8"/>
+      <c r="T11" s="9">
+        <f t="shared" si="9"/>
         <v>3.4139169071889297E-2</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="9"/>
+      <c r="U11" s="12">
+        <f t="shared" si="2"/>
         <v>1.2957388325761274E-2</v>
       </c>
-      <c r="W11">
+      <c r="V11" s="2">
         <f t="shared" si="10"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
         <v>200</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="2">
         <v>490.74299999999999</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="2">
         <v>292.78199999999998</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="2">
         <v>6408.87</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="2">
         <v>0.14483699999999999</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="2">
         <v>0.609263</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2">
         <v>7.7577499999999994E-2</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
         <v>18.297372134349907</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="2">
         <f t="shared" si="11"/>
         <v>11.162236819594124</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
+      <c r="K12" s="2">
+        <f t="shared" si="4"/>
         <v>9.1486860671749534E-2</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
         <v>5.5811184097970618E-2</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
+      <c r="M12" s="12">
+        <f t="shared" si="6"/>
         <v>0.56067987244809547</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
+      <c r="N12" s="12">
+        <f t="shared" si="7"/>
         <v>1.088968449931462E-4</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
+      <c r="O12" s="12">
+        <f t="shared" si="8"/>
         <v>0.65789319321946138</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="R12">
+      <c r="Q12" s="2">
         <f t="shared" si="0"/>
         <v>1.521272514878924E-26</v>
       </c>
-      <c r="S12">
+      <c r="R12" s="9">
         <f t="shared" si="12"/>
         <v>1.5212725148789239E-2</v>
       </c>
-      <c r="T12">
+      <c r="S12" s="2">
         <f t="shared" si="1"/>
         <v>9.4058934805741822E-27</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="8"/>
+      <c r="T12" s="9">
+        <f t="shared" si="9"/>
         <v>9.4058934805741814E-3</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="9"/>
+      <c r="U12" s="12">
+        <f t="shared" si="2"/>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="W12">
+      <c r="V12" s="2">
         <f t="shared" si="10"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>-20</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
         <v>600</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="2">
         <v>288.54300000000001</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="2">
         <v>58.347900000000003</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="2">
         <v>6142.86</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="2">
         <v>22.539000000000001</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="2">
         <v>195.02600000000001</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="2">
         <v>31.0823</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="2"/>
+      <c r="I13" s="3">
+        <f t="shared" si="3"/>
         <v>3443.7598556292337</v>
       </c>
-      <c r="K13">
+      <c r="J13" s="2">
         <f t="shared" si="11"/>
         <v>886.67016987704778</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
+      <c r="K13" s="2">
+        <f t="shared" si="4"/>
         <v>5.739599759382056</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
         <v>1.4777836164617464</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
+      <c r="M13" s="12">
+        <f t="shared" si="6"/>
         <v>0.53762954490312298</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
+      <c r="N13" s="12">
+        <f t="shared" si="7"/>
         <v>1.9559291138798785E-3</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
+      <c r="O13" s="12">
+        <f t="shared" si="8"/>
         <v>0.62182355639796505</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="4">
         <v>0.48780000000000001</v>
       </c>
-      <c r="R13">
+      <c r="Q13" s="2">
         <f t="shared" si="0"/>
         <v>9.0157233494120838E-25</v>
       </c>
-      <c r="S13">
+      <c r="R13" s="9">
         <f t="shared" si="12"/>
         <v>0.90157233494120836</v>
       </c>
-      <c r="T13">
+      <c r="S13" s="2">
         <f t="shared" si="1"/>
         <v>2.4923146795634336E-25</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="8"/>
+      <c r="T13" s="9">
+        <f t="shared" si="9"/>
         <v>0.24923146795634335</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="9"/>
+      <c r="U13" s="12">
+        <f t="shared" si="2"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="W13">
+      <c r="V13" s="2">
         <f t="shared" si="10"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>-30</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
         <v>800</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="2">
         <v>206.93799999999999</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="2">
         <v>144.46299999999999</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="2">
         <v>6155.25</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="2">
         <v>54.803100000000001</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="2">
         <v>233.47</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="2">
         <v>110.55200000000001</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
         <v>2956.658282151835</v>
       </c>
-      <c r="K14">
+      <c r="J14" s="2">
         <f t="shared" si="11"/>
         <v>2494.0583918090688</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
         <v>3.6958228526897936</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
         <v>3.117572989761336</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
+      <c r="M14" s="12">
+        <f t="shared" si="6"/>
         <v>0.53870316453502487</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
+      <c r="N14" s="12">
+        <f t="shared" si="7"/>
         <v>4.7499904299684922E-3</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
+      <c r="O14" s="12">
+        <f t="shared" si="8"/>
         <v>0.57072967889430926</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="R14">
+      <c r="Q14" s="2">
         <f t="shared" si="0"/>
         <v>6.1455313739872847E-25</v>
       </c>
-      <c r="S14">
+      <c r="R14" s="9">
         <f t="shared" si="12"/>
         <v>0.61455313739872841</v>
       </c>
-      <c r="T14">
+      <c r="S14" s="2">
         <f t="shared" si="1"/>
         <v>5.2207619335558797E-25</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="8"/>
+      <c r="T14" s="9">
+        <f t="shared" si="9"/>
         <v>0.52207619335558797</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="9"/>
+      <c r="U14" s="12">
+        <f t="shared" si="2"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="W14">
+      <c r="V14" s="2">
         <f t="shared" si="10"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>-40</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
         <v>1300</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="2">
         <v>226.90899999999999</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="2">
         <v>124.755</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="2">
         <v>5659.99</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="2">
         <v>48.741</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="2">
         <v>210.74600000000001</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="2">
         <v>86.297499999999999</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="2"/>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
         <v>2926.4483603959006</v>
       </c>
-      <c r="K15">
+      <c r="J15" s="2">
         <f t="shared" si="11"/>
         <v>2006.188194800844</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
+      <c r="K15" s="2">
+        <f t="shared" si="4"/>
         <v>2.2511141233814622</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
         <v>1.5432216883083416</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
+      <c r="M15" s="12">
+        <f t="shared" si="6"/>
         <v>0.49578784097604939</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
+      <c r="N15" s="12">
+        <f t="shared" si="7"/>
         <v>4.2247499509984066E-3</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="7"/>
+      <c r="O15" s="12">
+        <f t="shared" si="8"/>
         <v>0.51346870699924607</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="4">
         <v>0.504</v>
       </c>
-      <c r="R15">
+      <c r="Q15" s="2">
         <f t="shared" si="0"/>
         <v>3.4223761468680088E-25</v>
       </c>
-      <c r="S15">
+      <c r="R15" s="9">
         <f t="shared" si="12"/>
         <v>0.34223761468680086</v>
       </c>
-      <c r="T15">
+      <c r="S15" s="2">
         <f t="shared" si="1"/>
         <v>2.3713108923779522E-25</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="8"/>
+      <c r="T15" s="9">
+        <f t="shared" si="9"/>
         <v>0.23713108923779522</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="9"/>
+      <c r="U15" s="12">
+        <f t="shared" si="2"/>
         <v>3.855616972340576E-2</v>
       </c>
-      <c r="W15">
+      <c r="V15" s="2">
         <f t="shared" si="10"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2">
+      <c r="B17" s="2">
         <f>16384/400</f>
         <v>40.96</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="B18">
         <v>2.7</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19">
+      <c r="B19">
         <f>6.022E+23</f>
         <v>6.0220000000000003E+23</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20">
+      <c r="B20">
         <f>26.98</f>
         <v>26.98</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21">
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="O21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23">
+        <v>36.1</v>
+      </c>
       <c r="C23">
-        <v>36.1</v>
-      </c>
-      <c r="D23">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24">
+      <c r="B24">
         <v>3.81</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25">
+      <c r="B25" s="5">
         <f>POWER(3.81,2)/(4*POWER(36.1,2))</f>
         <v>2.7846816706440249E-3</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="5">
         <f>POWER(3.81,2)/(2*POWER(36.1,3))*0.2</f>
         <v>3.0855198566692801E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26">
+      <c r="B26" s="2">
+        <f>K2</f>
+        <v>5982.1625446222833</v>
+      </c>
+      <c r="C26" s="2">
         <f>L2</f>
-        <v>5982.1625446222833</v>
-      </c>
-      <c r="D26">
-        <f>M2</f>
         <v>13.64965727804228</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27">
-        <f>C18*C19*C21*C22/C20</f>
+      <c r="B27" s="6">
+        <f>B18*B19*B21*B22/B20</f>
         <v>7.8344032616753157E+23</v>
       </c>
-      <c r="D27">
-        <f>C18*C19*C21*D22/C20</f>
+      <c r="C27" s="6">
+        <f>B18*B19*B21*C22/B20</f>
         <v>7.8344032616753178E+22</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="D27" s="7">
+        <v>7.8299999999999994E+23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7.8300000000000001E+22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>11540.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.5354000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
-        <v>11540.4</v>
-      </c>
-      <c r="D29">
-        <v>1.5354000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30">
+      <c r="B30">
         <v>-61.6</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="2">
         <v>0.89865600000000001</v>
       </c>
     </row>
@@ -2360,6 +2347,7 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr showObjects="none" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="60" windowWidth="25000" windowHeight="17300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="60" windowWidth="18280" windowHeight="17320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="110304" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -186,17 +186,26 @@
   </si>
   <si>
     <t>PeakError</t>
+  </si>
+  <si>
+    <t>alternate for 10</t>
+  </si>
+  <si>
+    <t>alternate for -30</t>
+  </si>
+  <si>
+    <t>alternate for -40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -266,7 +275,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -589,14 +598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -721,7 +730,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -729,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -957,7 +966,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -965,14 +974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:V30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1303,46 +1312,46 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>1034.1500000000001</v>
+        <v>542.78499999999997</v>
       </c>
       <c r="D5" s="2">
-        <v>1149.4000000000001</v>
+        <v>20.5443</v>
       </c>
       <c r="E5" s="2">
-        <v>6497.06</v>
+        <v>6483.69</v>
       </c>
       <c r="F5" s="2">
-        <v>74.384100000000004</v>
+        <v>10.114000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>319.85899999999998</v>
+        <v>248.68299999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>117.879</v>
+        <v>11.1846</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>20242.861990075355</v>
+        <v>8260.4505931587355</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="11"/>
-        <v>23703.394516886779</v>
+        <v>485.57027782532532</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="4"/>
-        <v>25.303577487594193</v>
+        <v>10.325563241448419</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="5"/>
-        <v>29.629243146108475</v>
+        <v>0.60696284728165661</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="6"/>
-        <v>0.5683217219507124</v>
+        <v>0.56716318325188042</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="7"/>
-        <v>6.4464587683093575E-3</v>
+        <v>8.8312405594640961E-4</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="8"/>
@@ -1353,19 +1362,19 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3258438540817665E-24</v>
+        <v>1.7652355406997852E-24</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ref="R5:R15" si="12">Q5*1E+24</f>
-        <v>4.3258438540817661</v>
+        <v>1.7652355406997851</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="1"/>
-        <v>5.0840234827141762E-24</v>
+        <v>2.0573413246070051E-25</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="9"/>
-        <v>5.0840234827141764</v>
+        <v>0.20573413246070049</v>
       </c>
       <c r="U5" s="12">
         <f t="shared" si="2"/>
@@ -1384,46 +1393,46 @@
         <v>1300</v>
       </c>
       <c r="C6" s="2">
-        <v>796.94600000000003</v>
+        <v>497.96100000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>340.02</v>
+        <v>48.900799999999997</v>
       </c>
       <c r="E6" s="2">
-        <v>5070.46</v>
+        <v>5113.43</v>
       </c>
       <c r="F6" s="2">
-        <v>39.8628</v>
+        <v>18.147300000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>346.81900000000002</v>
+        <v>276.863</v>
       </c>
       <c r="H6" s="2">
-        <v>70.671300000000002</v>
+        <v>26.597100000000001</v>
       </c>
       <c r="I6" s="3">
         <f xml:space="preserve"> SQRT(2*3.14159)*G6*C6/40.96</f>
-        <v>16914.594068039365</v>
+        <v>8437.0389426077727</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="11"/>
-        <v>7997.5024617275812</v>
+        <v>1159.0510407707941</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>13.011226206184126</v>
+        <v>6.4900299558521333</v>
       </c>
       <c r="L6" s="2">
         <f>J6/B6</f>
-        <v>6.1519249705596781</v>
+        <v>0.89157772366984156</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="6"/>
-        <v>0.44470382309105411</v>
+        <v>0.44842726421961115</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" si="7"/>
-        <v>3.4555864880120766E-3</v>
+        <v>1.5755734459772977E-3</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="8"/>
@@ -1434,23 +1443,23 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>1.7982736050174836E-24</v>
+        <v>8.9698306527286568E-25</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="12"/>
-        <v>1.7982736050174837</v>
+        <v>0.89698306527286564</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="1"/>
-        <v>8.6930040499682974E-25</v>
+        <v>1.5275146289312027E-25</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="9"/>
-        <v>0.8693004049968297</v>
+        <v>0.15275146289312028</v>
       </c>
       <c r="U6" s="12">
         <f t="shared" si="2"/>
-        <v>3.855616972340576E-2</v>
+        <v>3.8556169723405753E-2</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="10"/>
@@ -1465,46 +1474,46 @@
         <v>1500</v>
       </c>
       <c r="C7" s="2">
-        <v>525.89800000000002</v>
+        <v>413.85</v>
       </c>
       <c r="D7" s="2">
-        <v>145.036</v>
+        <v>37.5167</v>
       </c>
       <c r="E7" s="2">
-        <v>4553.45</v>
+        <v>4581.96</v>
       </c>
       <c r="F7" s="2">
-        <v>51.093200000000003</v>
+        <v>15.858700000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>211.125</v>
+        <v>175.90199999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>49.218000000000004</v>
+        <v>19.2317</v>
       </c>
       <c r="I7" s="3">
         <f xml:space="preserve"> SQRT(2*3.14159)*G7*C7/40.96</f>
-        <v>6794.7109214884622</v>
+        <v>4454.9572381897351</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="11"/>
-        <v>2453.6788980251054</v>
+        <v>632.72017937414341</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>4.5298072809923084</v>
+        <v>2.9699714921264899</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="5"/>
-        <v>1.6357859320167369</v>
+        <v>0.42181345291609562</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" si="6"/>
-        <v>0.39990381615888532</v>
+        <v>0.40237426778967805</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="7"/>
-        <v>4.4283421079887603E-3</v>
+        <v>1.3774486180996625E-3</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="8"/>
@@ -1515,19 +1524,19 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>5.6965158672061624E-25</v>
+        <v>3.7349248390854974E-25</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="12"/>
-        <v>0.56965158672061622</v>
+        <v>0.37349248390854972</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="1"/>
-        <v>2.1354926240383177E-25</v>
+        <v>6.5012789452834744E-26</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="9"/>
-        <v>0.21354926240383176</v>
+        <v>6.5012789452834743E-2</v>
       </c>
       <c r="U7" s="12">
         <f t="shared" si="2"/>
@@ -1951,46 +1960,46 @@
         <v>600</v>
       </c>
       <c r="C13" s="2">
-        <v>288.54300000000001</v>
+        <v>326.32799999999997</v>
       </c>
       <c r="D13" s="2">
-        <v>58.347900000000003</v>
+        <v>22.5303</v>
       </c>
       <c r="E13" s="2">
-        <v>6142.86</v>
+        <v>6132.27</v>
       </c>
       <c r="F13" s="2">
-        <v>22.539000000000001</v>
+        <v>14.306699999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>195.02600000000001</v>
+        <v>231.851</v>
       </c>
       <c r="H13" s="2">
-        <v>31.0823</v>
+        <v>22.470099999999999</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>3443.7598556292337</v>
+        <v>4630.1292600338747</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="11"/>
-        <v>886.67016987704778</v>
+        <v>550.95652358657924</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>5.739599759382056</v>
+        <v>7.7168821000564582</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="5"/>
-        <v>1.4777836164617464</v>
+        <v>0.91826087264429868</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="6"/>
-        <v>0.53762954490312298</v>
+        <v>0.5367118990676234</v>
       </c>
       <c r="N13" s="12">
         <f t="shared" si="7"/>
-        <v>1.9559291138798785E-3</v>
+        <v>1.2442265230699476E-3</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="8"/>
@@ -2001,19 +2010,19 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>9.0157233494120838E-25</v>
+        <v>1.2121624686532089E-24</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="12"/>
-        <v>0.90157233494120836</v>
+        <v>1.2121624686532089</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="1"/>
-        <v>2.4923146795634336E-25</v>
+        <v>1.8890879899478152E-25</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="9"/>
-        <v>0.24923146795634335</v>
+        <v>0.18890879899478152</v>
       </c>
       <c r="U13" s="12">
         <f t="shared" si="2"/>
@@ -2179,7 +2188,7 @@
       </c>
       <c r="U15" s="12">
         <f t="shared" si="2"/>
-        <v>3.855616972340576E-2</v>
+        <v>3.8556169723405753E-2</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="10"/>
@@ -2343,13 +2352,80 @@
         <v>0.89865600000000001</v>
       </c>
     </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>110.712</v>
+      </c>
+      <c r="D38">
+        <v>10.232200000000001</v>
+      </c>
+      <c r="E38">
+        <v>7375.32</v>
+      </c>
+      <c r="F38">
+        <v>21.662800000000001</v>
+      </c>
+      <c r="G38">
+        <v>229.49799999999999</v>
+      </c>
+      <c r="H38">
+        <v>27.5611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>403.267</v>
+      </c>
+      <c r="D39">
+        <v>37.002800000000001</v>
+      </c>
+      <c r="E39">
+        <v>6156.92</v>
+      </c>
+      <c r="F39">
+        <v>16.875</v>
+      </c>
+      <c r="G39">
+        <v>311.79199999999997</v>
+      </c>
+      <c r="H39">
+        <v>26.801300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>464.40100000000001</v>
+      </c>
+      <c r="D40">
+        <v>31.343800000000002</v>
+      </c>
+      <c r="E40">
+        <v>5609.18</v>
+      </c>
+      <c r="F40">
+        <v>18.006799999999998</v>
+      </c>
+      <c r="G40">
+        <v>299.214</v>
+      </c>
+      <c r="H40">
+        <v>22.308700000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showObjects="none" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="60" windowWidth="18280" windowHeight="17320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="60" windowWidth="25000" windowHeight="17300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="110304" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -200,12 +200,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -275,7 +275,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -598,14 +598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -730,7 +730,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -738,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -966,7 +966,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -974,14 +974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1072,7 +1072,7 @@
         <v>26907.599999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>45.741199999999999</v>
+        <v>56.741199999999999</v>
       </c>
       <c r="E2" s="2">
         <v>7683.02</v>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="J2" s="2">
         <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2,2)+POWER(G2*D2,2)))</f>
-        <v>818.97943668253686</v>
+        <v>933.44421215607497</v>
       </c>
       <c r="K2" s="2">
         <f>I2/B2</f>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="L2" s="2">
         <f>J2/B2</f>
-        <v>13.64965727804228</v>
+        <v>15.557403535934583</v>
       </c>
       <c r="M2" s="12">
         <f>(E2+61.6)/11540.4</f>
@@ -1118,23 +1118,23 @@
         <v>0.38429999999999997</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q15" si="0">K2/(5982.1624*P2*7.8344E+23*0.00278468)</f>
-        <v>1.1927477030300059E-21</v>
+        <f>K2/(K2*P2*B27*B25)</f>
+        <v>1.1927464620436676E-21</v>
       </c>
       <c r="R2" s="9">
         <f>Q2*1E+24</f>
-        <v>1192.7477030300058</v>
+        <v>1192.7464620436676</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" ref="S2:S15" si="1">SQRT(POWER(L2/(5982.16254*P2*7.8344E+23*0.00278468),2)+POWER(K2*13.6496/(POWER(5982.16254,2)*P2*7.8344E+23*0.00278468),2)+POWER(K2*7.8344E+22/(5982.16254*P2*POWER(7.8344E+23,2)*0.00278468),2)+POWER(K2*0.000030855/(5982.16254*P2*7.8344E+23*POWER(0.00278468,2)),2))</f>
-        <v>1.2006641986364155E-22</v>
+        <f>SQRT(POWER(L2/(K2*P2*B27*B25),2)+POWER(K2*L2/(POWER(K2,2)*P2*B27*B25),2)+POWER(K2*C27/(K2*P2*POWER(B27,2)*B25),2)+POWER(K2*C25/(K2*P2*B27*POWER(B25,2)),2))</f>
+        <v>1.2008475384143627E-22</v>
       </c>
       <c r="T2" s="9">
         <f>S2*1E+24</f>
-        <v>120.06641986364154</v>
+        <v>120.08475384143627</v>
       </c>
       <c r="U2" s="12">
-        <f t="shared" ref="U2:U15" si="2">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V2,2)*(V2+1/V2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V2,2)*(V2+1/V2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
       <c r="V2" s="2">
@@ -1168,7 +1168,7 @@
         <v>36.712200000000003</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I15" si="3" xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
+        <f t="shared" ref="I3:I15" si="0" xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
         <v>1134.1453327589772</v>
       </c>
       <c r="J3" s="2">
@@ -1176,50 +1176,50 @@
         <v>291.57632810395484</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K15" si="4">I3/B3</f>
+        <f t="shared" ref="K3:K15" si="1">I3/B3</f>
         <v>5.6707266637948859</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="5">J3/B3</f>
+        <f t="shared" ref="L3:L15" si="2">J3/B3</f>
         <v>1.4578816405197741</v>
       </c>
       <c r="M3" s="12">
-        <f t="shared" ref="M3:M15" si="6">(E3+61.6)/11540.4</f>
+        <f t="shared" ref="M3:M15" si="3">(E3+61.6)/11540.4</f>
         <v>0.64519427402862994</v>
       </c>
       <c r="N3" s="12">
-        <f t="shared" ref="N3:N15" si="7">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+        <f t="shared" ref="N3:N15" si="4">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>2.5891360157888157E-3</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" ref="O3:O15" si="8">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+        <f t="shared" ref="O3:O15" si="5">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.65789319321946138</v>
       </c>
       <c r="P3" s="4">
         <v>0.40589999999999998</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0704846075148787E-24</v>
+        <f>K3/(K2*P3*B27*B25)</f>
+        <v>1.0704834937363573E-24</v>
       </c>
       <c r="R3" s="9">
         <f>Q3*1E+24</f>
-        <v>1.0704846075148786</v>
+        <v>1.0704834937363572</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="1"/>
-        <v>2.9554439238062503E-25</v>
+        <f>SQRT(POWER(L3/(K2*P3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*P3*B27*B25),2)+POWER(K3*C27/(K2*P3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*P3*B27*POWER(B25,2)),2))</f>
+        <v>2.9554711320656016E-25</v>
       </c>
       <c r="T3" s="9">
-        <f t="shared" ref="T3:T15" si="9">S3*1E+24</f>
-        <v>0.29554439238062502</v>
+        <f t="shared" ref="T3:T15" si="6">S3*1E+24</f>
+        <v>0.29554711320656019</v>
       </c>
       <c r="U3" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U3:U15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V3,2)*(V3+1/V3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V15" si="10">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+        <f t="shared" ref="V3:V15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -1249,58 +1249,58 @@
         <v>42.040399999999998</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>4103.9246031982575</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J15" si="9">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
+        <v>1300.3760788032978</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8398743386637628</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1672934646721629</v>
+      </c>
+      <c r="M4" s="12">
         <f t="shared" si="3"/>
-        <v>4103.9246031982575</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J15" si="11">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
-        <v>1300.3760788032978</v>
-      </c>
-      <c r="K4" s="2">
+        <v>0.60872933347197677</v>
+      </c>
+      <c r="N4" s="12">
         <f t="shared" si="4"/>
-        <v>6.8398743386637628</v>
-      </c>
-      <c r="L4" s="2">
+        <v>2.5087903814642065E-3</v>
+      </c>
+      <c r="O4" s="12">
         <f t="shared" si="5"/>
-        <v>2.1672934646721629</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" si="6"/>
-        <v>0.60872933347197677</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" si="7"/>
-        <v>2.5087903814642065E-3</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="8"/>
         <v>0.62182355639796505</v>
       </c>
       <c r="P4" s="4">
         <v>0.43380000000000002</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.208145774652378E-24</v>
+        <f>K4/(K2*P4*B27*B25)</f>
+        <v>1.2081445176452194E-24</v>
       </c>
       <c r="R4" s="9">
         <f>Q4*1E+24</f>
-        <v>1.208145774652378</v>
+        <v>1.2081445176452192</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0165939854135526E-25</v>
+        <f>SQRT(POWER(L4/(K2*P4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*P4*B27*B25),2)+POWER(K4*C27/(K2*P4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*P4*B27*POWER(B25,2)),2))</f>
+        <v>4.0166182177158987E-25</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" si="9"/>
-        <v>0.40165939854135524</v>
+        <f t="shared" si="6"/>
+        <v>0.40166182177158988</v>
       </c>
       <c r="U4" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
@@ -1330,58 +1330,58 @@
         <v>11.1846</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>8260.4505931587355</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="9"/>
+        <v>485.57027782532532</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>10.325563241448419</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.60696284728165661</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
-        <v>8260.4505931587355</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="11"/>
-        <v>485.57027782532532</v>
-      </c>
-      <c r="K5" s="2">
+        <v>0.56716318325188042</v>
+      </c>
+      <c r="N5" s="12">
         <f t="shared" si="4"/>
-        <v>10.325563241448419</v>
-      </c>
-      <c r="L5" s="2">
+        <v>8.8312405594640961E-4</v>
+      </c>
+      <c r="O5" s="12">
         <f t="shared" si="5"/>
-        <v>0.60696284728165661</v>
-      </c>
-      <c r="M5" s="12">
-        <f t="shared" si="6"/>
-        <v>0.56716318325188042</v>
-      </c>
-      <c r="N5" s="12">
-        <f t="shared" si="7"/>
-        <v>8.8312405594640961E-4</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" si="8"/>
         <v>0.57072967889430926</v>
       </c>
       <c r="P5" s="4">
         <v>0.44819999999999999</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7652355406997852E-24</v>
+        <f>K5/(K2*P5*B27*B25)</f>
+        <v>1.7652337040723204E-24</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" ref="R5:R15" si="12">Q5*1E+24</f>
-        <v>1.7652355406997851</v>
+        <f t="shared" ref="R5:R15" si="10">Q5*1E+24</f>
+        <v>1.7652337040723203</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0573413246070051E-25</v>
+        <f>SQRT(POWER(L5/(K2*P5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*P5*B27*B25),2)+POWER(K5*C27/(K2*P5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*P5*B27*POWER(B25,2)),2))</f>
+        <v>2.0574572533385148E-25</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="9"/>
-        <v>0.20573413246070049</v>
+        <f t="shared" si="6"/>
+        <v>0.20574572533385146</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
         <v>8437.0389426077727</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1159.0510407707941</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.4900299558521333</v>
       </c>
       <c r="L6" s="2">
@@ -1427,42 +1427,42 @@
         <v>0.89157772366984156</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.44842726421961115</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.5755734459772977E-3</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.51346870699924607</v>
       </c>
       <c r="P6" s="4">
         <v>0.5544</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.9698306527286568E-25</v>
+        <f>K6/(K2*P6*B27*B25)</f>
+        <v>8.9698213201285871E-25</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="12"/>
-        <v>0.89698306527286564</v>
+        <f t="shared" si="10"/>
+        <v>0.8969821320128587</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5275146289312027E-25</v>
+        <f>SQRT(POWER(L6/(K2*P6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*P6*B27*B25),2)+POWER(K6*C27/(K2*P6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*P6*B27*POWER(B25,2)),2))</f>
+        <v>1.5275541194672299E-25</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="9"/>
-        <v>0.15275146289312028</v>
+        <f t="shared" si="6"/>
+        <v>0.15275541194672299</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
@@ -1496,54 +1496,54 @@
         <v>4454.9572381897351</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>632.72017937414341</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9699714921264899</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42181345291609562</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.40237426778967805</v>
+      </c>
+      <c r="N7" s="12">
         <f t="shared" si="4"/>
-        <v>2.9699714921264899</v>
-      </c>
-      <c r="L7" s="2">
+        <v>1.3774486180996625E-3</v>
+      </c>
+      <c r="O7" s="12">
         <f t="shared" si="5"/>
-        <v>0.42181345291609562</v>
-      </c>
-      <c r="M7" s="12">
-        <f t="shared" si="6"/>
-        <v>0.40237426778967805</v>
-      </c>
-      <c r="N7" s="12">
-        <f t="shared" si="7"/>
-        <v>1.3774486180996625E-3</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="8"/>
         <v>0.45695018268506399</v>
       </c>
       <c r="P7" s="4">
         <v>0.60929999999999995</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7349248390854974E-25</v>
+        <f>K7/(K2*P7*B27*B25)</f>
+        <v>3.7349209531080294E-25</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="12"/>
-        <v>0.37349248390854972</v>
+        <f t="shared" si="10"/>
+        <v>0.37349209531080291</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="1"/>
-        <v>6.5012789452834744E-26</v>
+        <f>SQRT(POWER(L7/(K2*P7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*P7*B27*B25),2)+POWER(K7*C27/(K2*P7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*P7*B27*POWER(B25,2)),2))</f>
+        <v>6.5014395318060925E-26</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" si="9"/>
-        <v>6.5012789452834743E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.5014395318060927E-2</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.8763760580229697E-2</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
@@ -1573,58 +1573,58 @@
         <v>57.789200000000001</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>2541.508956638771</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="9"/>
+        <v>1744.3353668580341</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4119494203548728</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96907520381001899</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
-        <v>2541.508956638771</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="11"/>
-        <v>1744.3353668580341</v>
-      </c>
-      <c r="K8" s="2">
+        <v>0.35524071955911407</v>
+      </c>
+      <c r="N8" s="12">
         <f t="shared" si="4"/>
-        <v>1.4119494203548728</v>
-      </c>
-      <c r="L8" s="2">
+        <v>4.0166773590436019E-3</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="5"/>
-        <v>0.96907520381001899</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="6"/>
-        <v>0.35524071955911407</v>
-      </c>
-      <c r="N8" s="12">
-        <f t="shared" si="7"/>
-        <v>4.0166773590436019E-3</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="8"/>
         <v>0.40527245200170919</v>
       </c>
       <c r="P8" s="4">
         <v>0.66239999999999999</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6332759973264725E-25</v>
+        <f>K8/(K2*P8*B27*B25)</f>
+        <v>1.6332742979954287E-25</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.16332759973264724</v>
+        <f t="shared" si="10"/>
+        <v>0.16332742979954287</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1329667828448283E-25</v>
+        <f>SQRT(POWER(L8/(K2*P8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*P8*B27*B25),2)+POWER(K8*C27/(K2*P8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*P8*B27*POWER(B25,2)),2))</f>
+        <v>1.1329674653133297E-25</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="9"/>
-        <v>0.11329667828448282</v>
+        <f t="shared" si="6"/>
+        <v>0.11329674653133297</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.18590607833666E-2</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>12.5046</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>584.1071647539269</v>
       </c>
       <c r="J9" s="2">
@@ -1662,50 +1662,50 @@
         <v>329.54946217048143</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27814626893044136</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15692831531927687</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32259713701431497</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
-        <v>0.27814626893044136</v>
-      </c>
-      <c r="L9" s="2">
+        <v>1.1121546138082839E-3</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="5"/>
-        <v>0.15692831531927687</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="6"/>
-        <v>0.32259713701431497</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="7"/>
-        <v>1.1121546138082839E-3</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="8"/>
         <v>0.36020200208327863</v>
       </c>
       <c r="P9" s="4">
         <v>0.69750000000000001</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0555527860326294E-26</v>
+        <f>K9/(K2*P9*B27*B25)</f>
+        <v>3.0555496069032519E-26</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="12"/>
-        <v>3.0555527860326295E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.0555496069032517E-2</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7511337078840301E-26</v>
+        <f>SQRT(POWER(L9/(K2*P9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*P9*B27*B25),2)+POWER(K9*C27/(K2*P9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*P9*B27*POWER(B25,2)),2))</f>
+        <v>1.7511360815465929E-26</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="9"/>
-        <v>1.7511337078840301E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.7511360815465928E-2</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.7347295999573225E-2</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
@@ -1735,58 +1735,58 @@
         <v>62.915599999999998</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>2454.9296637709926</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="9"/>
+        <v>2813.5676395888436</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34096245330152675</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39077328327622829</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
-        <v>2454.9296637709926</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="11"/>
-        <v>2813.5676395888436</v>
-      </c>
-      <c r="K10" s="2">
+        <v>0.28312623479255483</v>
+      </c>
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
-        <v>0.34096245330152675</v>
-      </c>
-      <c r="L10" s="2">
+        <v>3.8879184587797652E-3</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="5"/>
-        <v>0.39077328327622829</v>
-      </c>
-      <c r="M10" s="12">
-        <f t="shared" si="6"/>
-        <v>0.28312623479255483</v>
-      </c>
-      <c r="N10" s="12">
-        <f t="shared" si="7"/>
-        <v>3.8879184587797652E-3</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="8"/>
         <v>0.32203280762368441</v>
       </c>
       <c r="P10" s="4">
         <v>0.73260000000000003</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5661565718836714E-26</v>
+        <f>K10/(K2*P10*B27*B25)</f>
+        <v>3.5661528615000132E-26</v>
       </c>
       <c r="R10" s="9">
-        <f t="shared" si="12"/>
-        <v>3.5661565718836712E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.5661528615000132E-2</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1028591604269557E-26</v>
+        <f>SQRT(POWER(L10/(K2*P10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*P10*B27*B25),2)+POWER(K10*C27/(K2*P10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*P10*B27*POWER(B25,2)),2))</f>
+        <v>4.1028574030437931E-26</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="9"/>
-        <v>4.1028591604269554E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1028574030437928E-2</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.4570392197332485E-2</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
@@ -1816,58 +1816,58 @@
         <v>51.051699999999997</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>3949.1012714286776</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="9"/>
+        <v>3663.9370993803864</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36565752513228494</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33925343512781353</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
-        <v>3949.1012714286776</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="11"/>
-        <v>3663.9370993803864</v>
-      </c>
-      <c r="K11" s="2">
+        <v>0.27400090118193476</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>0.36565752513228494</v>
-      </c>
-      <c r="L11" s="2">
+        <v>3.779177099759409E-3</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="5"/>
-        <v>0.33925343512781353</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="6"/>
-        <v>0.27400090118193476</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="7"/>
-        <v>3.779177099759409E-3</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="8"/>
         <v>0.29030620042535898</v>
       </c>
       <c r="P11" s="4">
         <v>0.76590000000000003</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.6581643241920477E-26</v>
+        <f>K11/(K2*P11*B27*B25)</f>
+        <v>3.6581605180795413E-26</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="12"/>
-        <v>3.6581643241920474E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.658160518079541E-2</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4139169071889297E-26</v>
+        <f>SQRT(POWER(L11/(K2*P11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*P11*B27*B25),2)+POWER(K11*C27/(K2*P11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*P11*B27*POWER(B25,2)),2))</f>
+        <v>3.413916489642537E-26</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="9"/>
-        <v>3.4139169071889297E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.4139164896425371E-2</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.2957388325761274E-2</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
@@ -1897,58 +1897,58 @@
         <v>7.7577499999999994E-2</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>18.297372134349907</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="9"/>
+        <v>11.162236819594124</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1486860671749534E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5811184097970618E-2</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>18.297372134349907</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="11"/>
-        <v>11.162236819594124</v>
-      </c>
-      <c r="K12" s="2">
+        <v>0.56067987244809547</v>
+      </c>
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
-        <v>9.1486860671749534E-2</v>
-      </c>
-      <c r="L12" s="2">
+        <v>1.088968449931462E-4</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="5"/>
-        <v>5.5811184097970618E-2</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="6"/>
-        <v>0.56067987244809547</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="7"/>
-        <v>1.088968449931462E-4</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="8"/>
         <v>0.65789319321946138</v>
       </c>
       <c r="P12" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.521272514878924E-26</v>
+        <f>K12/(K2*P12*B27*B25)</f>
+        <v>1.5212709320811516E-26</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="12"/>
-        <v>1.5212725148789239E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.5212709320811516E-2</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="1"/>
-        <v>9.4058934805741822E-27</v>
+        <f>SQRT(POWER(L12/(K2*P12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*P12*B27*B25),2)+POWER(K12*C27/(K2*P12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*P12*B27*POWER(B25,2)),2))</f>
+        <v>9.4059030872556428E-27</v>
       </c>
       <c r="T12" s="9">
-        <f t="shared" si="9"/>
-        <v>9.4058934805741814E-3</v>
+        <f t="shared" si="6"/>
+        <v>9.4059030872556421E-3</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.517740944578237E-2</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -1978,58 +1978,58 @@
         <v>22.470099999999999</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>4630.1292600338747</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="9"/>
+        <v>550.95652358657924</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7168821000564582</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91826087264429868</v>
+      </c>
+      <c r="M13" s="12">
         <f t="shared" si="3"/>
-        <v>4630.1292600338747</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="11"/>
-        <v>550.95652358657924</v>
-      </c>
-      <c r="K13" s="2">
+        <v>0.5367118990676234</v>
+      </c>
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
-        <v>7.7168821000564582</v>
-      </c>
-      <c r="L13" s="2">
+        <v>1.2442265230699476E-3</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="5"/>
-        <v>0.91826087264429868</v>
-      </c>
-      <c r="M13" s="12">
-        <f t="shared" si="6"/>
-        <v>0.5367118990676234</v>
-      </c>
-      <c r="N13" s="12">
-        <f t="shared" si="7"/>
-        <v>1.2442265230699476E-3</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="8"/>
         <v>0.62182355639796505</v>
       </c>
       <c r="P13" s="4">
         <v>0.48780000000000001</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2121624686532089E-24</v>
+        <f>K13/(K2*P13*B27*B25)</f>
+        <v>1.2121612074669081E-24</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="12"/>
-        <v>1.2121624686532089</v>
+        <f t="shared" si="10"/>
+        <v>1.2121612074669081</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8890879899478152E-25</v>
+        <f>SQRT(POWER(L13/(K2*P13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*P13*B27*B25),2)+POWER(K13*C27/(K2*P13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*P13*B27*POWER(B25,2)),2))</f>
+        <v>1.8891466774800232E-25</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="9"/>
-        <v>0.18890879899478152</v>
+        <f t="shared" si="6"/>
+        <v>0.18891466774800231</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
@@ -2059,58 +2059,58 @@
         <v>110.55200000000001</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>2956.658282151835</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="9"/>
+        <v>2494.0583918090688</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6958228526897936</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>3.117572989761336</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="3"/>
-        <v>2956.658282151835</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="11"/>
-        <v>2494.0583918090688</v>
-      </c>
-      <c r="K14" s="2">
+        <v>0.53870316453502487</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
-        <v>3.6958228526897936</v>
-      </c>
-      <c r="L14" s="2">
+        <v>4.7499904299684922E-3</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="5"/>
-        <v>3.117572989761336</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" si="6"/>
-        <v>0.53870316453502487</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" si="7"/>
-        <v>4.7499904299684922E-3</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="8"/>
         <v>0.57072967889430926</v>
       </c>
       <c r="P14" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1455313739872847E-25</v>
+        <f>K14/(K2*P14*B27*B25)</f>
+        <v>6.1455249799104341E-25</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="12"/>
-        <v>0.61455313739872841</v>
+        <f t="shared" si="10"/>
+        <v>0.61455249799104339</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2207619335558797E-25</v>
+        <f>SQRT(POWER(L14/(K2*P14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*P14*B27*B25),2)+POWER(K14*C27/(K2*P14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*P14*B27*POWER(B25,2)),2))</f>
+        <v>5.2207622609595199E-25</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="9"/>
-        <v>0.52207619335558797</v>
+        <f t="shared" si="6"/>
+        <v>0.52207622609595195</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -2140,58 +2140,58 @@
         <v>86.297499999999999</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>2926.4483603959006</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="9"/>
+        <v>2006.188194800844</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2511141233814622</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5432216883083416</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="3"/>
-        <v>2926.4483603959006</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="11"/>
-        <v>2006.188194800844</v>
-      </c>
-      <c r="K15" s="2">
+        <v>0.49578784097604939</v>
+      </c>
+      <c r="N15" s="12">
         <f t="shared" si="4"/>
-        <v>2.2511141233814622</v>
-      </c>
-      <c r="L15" s="2">
+        <v>4.2247499509984066E-3</v>
+      </c>
+      <c r="O15" s="12">
         <f t="shared" si="5"/>
-        <v>1.5432216883083416</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="6"/>
-        <v>0.49578784097604939</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="7"/>
-        <v>4.2247499509984066E-3</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="8"/>
         <v>0.51346870699924607</v>
       </c>
       <c r="P15" s="4">
         <v>0.504</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4223761468680088E-25</v>
+        <f>K15/(K2*P15*B27*B25)</f>
+        <v>3.4223725860797291E-25</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="12"/>
-        <v>0.34223761468680086</v>
+        <f t="shared" si="10"/>
+        <v>0.34223725860797288</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3713108923779522E-25</v>
+        <f>SQRT(POWER(L15/(K2*P15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*P15*B27*B25),2)+POWER(K15*C27/(K2*P15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*P15*B27*POWER(B25,2)),2))</f>
+        <v>2.3713123295878307E-25</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="9"/>
-        <v>0.23713108923779522</v>
+        <f t="shared" si="6"/>
+        <v>0.23713123295878308</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C26" s="2">
         <f>L2</f>
-        <v>13.64965727804228</v>
+        <v>15.557403535934583</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2422,10 +2422,11 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,7 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -978,19 +977,19 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" style="10"/>
+    <col min="13" max="15" width="10.83203125" style="9"/>
     <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="10"/>
-    <col min="21" max="21" width="10.83203125" style="12"/>
+    <col min="20" max="20" width="10.83203125" style="9"/>
+    <col min="21" max="21" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1">
@@ -1054,7 +1053,7 @@
       <c r="T1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -1102,15 +1101,15 @@
         <f>J2/B2</f>
         <v>15.557403535934583</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f>(E2+61.6)/11540.4</f>
         <v>0.67108765727357811</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <f>SQRT(POWER(F2/11540.4,2)+POWER((-61.6-E2)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>1.2403024496755212E-4</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.67100000000000004</v>
       </c>
@@ -1118,22 +1117,22 @@
         <v>0.38429999999999997</v>
       </c>
       <c r="Q2" s="2">
-        <f>K2/(K2*P2*B27*B25)</f>
-        <v>1.1927464620436676E-21</v>
-      </c>
-      <c r="R2" s="9">
+        <f>K2*P2/(K2*P2*B27*B25)</f>
+        <v>3.6476152629988443E-23</v>
+      </c>
+      <c r="R2" s="11">
         <f>Q2*1E+24</f>
-        <v>1192.7464620436676</v>
+        <v>36.476152629988441</v>
       </c>
       <c r="S2" s="2">
         <f>SQRT(POWER(L2/(K2*P2*B27*B25),2)+POWER(K2*L2/(POWER(K2,2)*P2*B27*B25),2)+POWER(K2*C27/(K2*P2*POWER(B27,2)*B25),2)+POWER(K2*C25/(K2*P2*B27*POWER(B25,2)),2))</f>
-        <v>1.2008475384143627E-22</v>
-      </c>
-      <c r="T2" s="9">
+        <v>9.4983687592287661E-24</v>
+      </c>
+      <c r="T2" s="11">
         <f>S2*1E+24</f>
-        <v>120.08475384143627</v>
-      </c>
-      <c r="U2" s="12">
+        <v>9.4983687592287662</v>
+      </c>
+      <c r="U2" s="11">
         <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V2,2)*(V2+1/V2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>36.712200000000003</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I15" si="0" xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
         <v>1134.1453327589772</v>
       </c>
       <c r="J3" s="2">
@@ -1176,50 +1175,50 @@
         <v>291.57632810395484</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K15" si="1">I3/B3</f>
+        <f t="shared" ref="K3:K15" si="0">I3/B3</f>
         <v>5.6707266637948859</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L15" si="2">J3/B3</f>
+        <f t="shared" ref="L3:L15" si="1">J3/B3</f>
         <v>1.4578816405197741</v>
       </c>
-      <c r="M3" s="12">
-        <f t="shared" ref="M3:M15" si="3">(E3+61.6)/11540.4</f>
+      <c r="M3" s="11">
+        <f t="shared" ref="M3:M15" si="2">(E3+61.6)/11540.4</f>
         <v>0.64519427402862994</v>
       </c>
-      <c r="N3" s="12">
-        <f t="shared" ref="N3:N15" si="4">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
+      <c r="N3" s="11">
+        <f t="shared" ref="N3:N15" si="3">SQRT(POWER(F3/11540.4,2)+POWER((-61.6-E3)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>2.5891360157888157E-3</v>
       </c>
-      <c r="O3" s="12">
-        <f t="shared" ref="O3:O15" si="5">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="O3" s="11">
+        <f t="shared" ref="O3:O15" si="4">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.65789319321946138</v>
       </c>
       <c r="P3" s="4">
         <v>0.40589999999999998</v>
       </c>
       <c r="Q3" s="2">
-        <f>K3/(K2*P3*B27*B25)</f>
-        <v>1.0704834937363573E-24</v>
-      </c>
-      <c r="R3" s="9">
+        <f>K3*P2/(K2*P3*B27*B25)</f>
+        <v>3.2737149551889501E-26</v>
+      </c>
+      <c r="R3" s="11">
         <f>Q3*1E+24</f>
-        <v>1.0704834937363572</v>
+        <v>3.2737149551889499E-2</v>
       </c>
       <c r="S3" s="2">
         <f>SQRT(POWER(L3/(K2*P3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*P3*B27*B25),2)+POWER(K3*C27/(K2*P3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*P3*B27*POWER(B25,2)),2))</f>
-        <v>2.9554711320656016E-25</v>
-      </c>
-      <c r="T3" s="9">
-        <f t="shared" ref="T3:T15" si="6">S3*1E+24</f>
-        <v>0.29554711320656019</v>
-      </c>
-      <c r="U3" s="12">
-        <f t="shared" ref="U3:U15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V3,2)*(V3+1/V3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+        <v>2.3500083421603371E-26</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" ref="T3:T15" si="5">S3*1E+24</f>
+        <v>2.3500083421603372E-2</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" ref="U3:U15" si="6">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V3,2)*(V3+1/V3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+        <f t="shared" ref="V3:V15" si="7">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -1249,7 +1248,7 @@
         <v>42.040399999999998</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I15" si="8" xml:space="preserve"> SQRT(2*3.14159)*G4*C4/40.96</f>
         <v>4103.9246031982575</v>
       </c>
       <c r="J4" s="2">
@@ -1257,50 +1256,50 @@
         <v>1300.3760788032978</v>
       </c>
       <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8398743386637628</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
-        <v>6.8398743386637628</v>
-      </c>
-      <c r="L4" s="2">
+        <v>2.1672934646721629</v>
+      </c>
+      <c r="M4" s="11">
         <f t="shared" si="2"/>
-        <v>2.1672934646721629</v>
-      </c>
-      <c r="M4" s="12">
+        <v>0.60872933347197677</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" si="3"/>
-        <v>0.60872933347197677</v>
-      </c>
-      <c r="N4" s="12">
+        <v>2.5087903814642065E-3</v>
+      </c>
+      <c r="O4" s="11">
         <f t="shared" si="4"/>
-        <v>2.5087903814642065E-3</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="5"/>
         <v>0.62182355639796505</v>
       </c>
       <c r="P4" s="4">
         <v>0.43380000000000002</v>
       </c>
       <c r="Q4" s="2">
-        <f>K4/(K2*P4*B27*B25)</f>
-        <v>1.2081445176452194E-24</v>
-      </c>
-      <c r="R4" s="9">
+        <f>K4*P2/(K2*P4*B27*B25)</f>
+        <v>3.6947050548532581E-26</v>
+      </c>
+      <c r="R4" s="11">
         <f>Q4*1E+24</f>
-        <v>1.2081445176452192</v>
+        <v>3.6947050548532583E-2</v>
       </c>
       <c r="S4" s="2">
         <f>SQRT(POWER(L4/(K2*P4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*P4*B27*B25),2)+POWER(K4*C27/(K2*P4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*P4*B27*POWER(B25,2)),2))</f>
-        <v>4.0166182177158987E-25</v>
-      </c>
-      <c r="T4" s="9">
+        <v>3.1945614899126363E-26</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="5"/>
+        <v>3.1945614899126361E-2</v>
+      </c>
+      <c r="U4" s="11">
         <f t="shared" si="6"/>
-        <v>0.40166182177158988</v>
-      </c>
-      <c r="U4" s="12">
+        <v>6.4384737830657068E-2</v>
+      </c>
+      <c r="V4" s="2">
         <f t="shared" si="7"/>
-        <v>6.4384737830657068E-2</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
@@ -1330,7 +1329,7 @@
         <v>11.1846</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8260.4505931587355</v>
       </c>
       <c r="J5" s="2">
@@ -1338,50 +1337,50 @@
         <v>485.57027782532532</v>
       </c>
       <c r="K5" s="2">
+        <f>I5/B5</f>
+        <v>10.325563241448419</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="1"/>
-        <v>10.325563241448419</v>
-      </c>
-      <c r="L5" s="2">
+        <v>0.60696284728165661</v>
+      </c>
+      <c r="M5" s="11">
         <f t="shared" si="2"/>
-        <v>0.60696284728165661</v>
-      </c>
-      <c r="M5" s="12">
+        <v>0.56716318325188042</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="3"/>
-        <v>0.56716318325188042</v>
-      </c>
-      <c r="N5" s="12">
+        <v>8.8312405594640961E-4</v>
+      </c>
+      <c r="O5" s="11">
         <f t="shared" si="4"/>
-        <v>8.8312405594640961E-4</v>
-      </c>
-      <c r="O5" s="12">
-        <f t="shared" si="5"/>
         <v>0.57072967889430926</v>
       </c>
       <c r="P5" s="4">
         <v>0.44819999999999999</v>
       </c>
       <c r="Q5" s="2">
-        <f>K5/(K2*P5*B27*B25)</f>
-        <v>1.7652337040723204E-24</v>
-      </c>
-      <c r="R5" s="9">
+        <f>K5*P2/(K2*P5*B27*B25)</f>
+        <v>5.3983756033966302E-26</v>
+      </c>
+      <c r="R5" s="11">
         <f t="shared" ref="R5:R15" si="10">Q5*1E+24</f>
-        <v>1.7652337040723203</v>
+        <v>5.3983756033966303E-2</v>
       </c>
       <c r="S5" s="2">
         <f>SQRT(POWER(L5/(K2*P5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*P5*B27*B25),2)+POWER(K5*C27/(K2*P5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*P5*B27*POWER(B25,2)),2))</f>
-        <v>2.0574572533385148E-25</v>
-      </c>
-      <c r="T5" s="9">
+        <v>1.6299056831568872E-26</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6299056831568872E-2</v>
+      </c>
+      <c r="U5" s="11">
         <f t="shared" si="6"/>
-        <v>0.20574572533385146</v>
-      </c>
-      <c r="U5" s="12">
+        <v>5.1006364300052669E-2</v>
+      </c>
+      <c r="V5" s="2">
         <f t="shared" si="7"/>
-        <v>5.1006364300052669E-2</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -1419,50 +1418,50 @@
         <v>1159.0510407707941</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4900299558521333</v>
       </c>
       <c r="L6" s="2">
         <f>J6/B6</f>
         <v>0.89157772366984156</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.44842726421961115</v>
+      </c>
+      <c r="N6" s="11">
         <f t="shared" si="3"/>
-        <v>0.44842726421961115</v>
-      </c>
-      <c r="N6" s="12">
+        <v>1.5755734459772977E-3</v>
+      </c>
+      <c r="O6" s="11">
         <f t="shared" si="4"/>
-        <v>1.5755734459772977E-3</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="5"/>
         <v>0.51346870699924607</v>
       </c>
       <c r="P6" s="4">
         <v>0.5544</v>
       </c>
       <c r="Q6" s="2">
-        <f>K6/(K2*P6*B27*B25)</f>
-        <v>8.9698213201285871E-25</v>
-      </c>
-      <c r="R6" s="9">
+        <f>K6*P2/(K2*P6*B27*B25)</f>
+        <v>2.7431191954753934E-26</v>
+      </c>
+      <c r="R6" s="11">
         <f t="shared" si="10"/>
-        <v>0.8969821320128587</v>
+        <v>2.7431191954753933E-2</v>
       </c>
       <c r="S6" s="2">
         <f>SQRT(POWER(L6/(K2*P6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*P6*B27*B25),2)+POWER(K6*C27/(K2*P6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*P6*B27*POWER(B25,2)),2))</f>
-        <v>1.5275541194672299E-25</v>
-      </c>
-      <c r="T6" s="9">
+        <v>1.2130305869483368E-26</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2130305869483368E-2</v>
+      </c>
+      <c r="U6" s="11">
         <f t="shared" si="6"/>
-        <v>0.15275541194672299</v>
-      </c>
-      <c r="U6" s="12">
+        <v>3.8556169723405753E-2</v>
+      </c>
+      <c r="V6" s="2">
         <f t="shared" si="7"/>
-        <v>3.8556169723405753E-2</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
@@ -1500,50 +1499,50 @@
         <v>632.72017937414341</v>
       </c>
       <c r="K7" s="2">
+        <f>I7/B7</f>
+        <v>2.9699714921264899</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>2.9699714921264899</v>
-      </c>
-      <c r="L7" s="2">
+        <v>0.42181345291609562</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="2"/>
-        <v>0.42181345291609562</v>
-      </c>
-      <c r="M7" s="12">
+        <v>0.40237426778967805</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="3"/>
-        <v>0.40237426778967805</v>
-      </c>
-      <c r="N7" s="12">
+        <v>1.3774486180996625E-3</v>
+      </c>
+      <c r="O7" s="11">
         <f t="shared" si="4"/>
-        <v>1.3774486180996625E-3</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="5"/>
         <v>0.45695018268506399</v>
       </c>
       <c r="P7" s="4">
         <v>0.60929999999999995</v>
       </c>
       <c r="Q7" s="2">
-        <f>K7/(K2*P7*B27*B25)</f>
-        <v>3.7349209531080294E-25</v>
-      </c>
-      <c r="R7" s="9">
+        <f>K7*P2/(K2*P7*B27*B25)</f>
+        <v>1.1422003844227093E-26</v>
+      </c>
+      <c r="R7" s="11">
         <f t="shared" si="10"/>
-        <v>0.37349209531080291</v>
+        <v>1.1422003844227093E-2</v>
       </c>
       <c r="S7" s="2">
         <f>SQRT(POWER(L7/(K2*P7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*P7*B27*B25),2)+POWER(K7*C27/(K2*P7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*P7*B27*POWER(B25,2)),2))</f>
-        <v>6.5014395318060925E-26</v>
-      </c>
-      <c r="T7" s="9">
+        <v>5.1632600313744812E-27</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="5"/>
+        <v>5.1632600313744814E-3</v>
+      </c>
+      <c r="U7" s="11">
         <f t="shared" si="6"/>
-        <v>6.5014395318060927E-2</v>
-      </c>
-      <c r="U7" s="12">
+        <v>2.8763760580229697E-2</v>
+      </c>
+      <c r="V7" s="2">
         <f t="shared" si="7"/>
-        <v>2.8763760580229697E-2</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="8"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
@@ -1573,7 +1572,7 @@
         <v>57.789200000000001</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2541.508956638771</v>
       </c>
       <c r="J8" s="2">
@@ -1581,50 +1580,50 @@
         <v>1744.3353668580341</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4119494203548728</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4119494203548728</v>
-      </c>
-      <c r="L8" s="2">
+        <v>0.96907520381001899</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="2"/>
-        <v>0.96907520381001899</v>
-      </c>
-      <c r="M8" s="12">
+        <v>0.35524071955911407</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="3"/>
-        <v>0.35524071955911407</v>
-      </c>
-      <c r="N8" s="12">
+        <v>4.0166773590436019E-3</v>
+      </c>
+      <c r="O8" s="11">
         <f t="shared" si="4"/>
-        <v>4.0166773590436019E-3</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="5"/>
         <v>0.40527245200170919</v>
       </c>
       <c r="P8" s="4">
         <v>0.66239999999999999</v>
       </c>
       <c r="Q8" s="2">
-        <f>K8/(K2*P8*B27*B25)</f>
-        <v>1.6332742979954287E-25</v>
-      </c>
-      <c r="R8" s="9">
+        <f>K8*P2/(K2*P8*B27*B25)</f>
+        <v>4.9948219907725335E-27</v>
+      </c>
+      <c r="R8" s="11">
         <f t="shared" si="10"/>
-        <v>0.16332742979954287</v>
+        <v>4.9948219907725334E-3</v>
       </c>
       <c r="S8" s="2">
         <f>SQRT(POWER(L8/(K2*P8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*P8*B27*B25),2)+POWER(K8*C27/(K2*P8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*P8*B27*POWER(B25,2)),2))</f>
-        <v>1.1329674653133297E-25</v>
-      </c>
-      <c r="T8" s="9">
+        <v>9.0147332670213611E-27</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="5"/>
+        <v>9.0147332670213604E-3</v>
+      </c>
+      <c r="U8" s="11">
         <f t="shared" si="6"/>
-        <v>0.11329674653133297</v>
-      </c>
-      <c r="U8" s="12">
+        <v>2.18590607833666E-2</v>
+      </c>
+      <c r="V8" s="2">
         <f t="shared" si="7"/>
-        <v>2.18590607833666E-2</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="8"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
@@ -1654,7 +1653,7 @@
         <v>12.5046</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>584.1071647539269</v>
       </c>
       <c r="J9" s="2">
@@ -1662,50 +1661,50 @@
         <v>329.54946217048143</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27814626893044136</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>0.27814626893044136</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0.15692831531927687</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="2"/>
-        <v>0.15692831531927687</v>
-      </c>
-      <c r="M9" s="12">
+        <v>0.32259713701431497</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="3"/>
-        <v>0.32259713701431497</v>
-      </c>
-      <c r="N9" s="12">
+        <v>1.1121546138082839E-3</v>
+      </c>
+      <c r="O9" s="11">
         <f t="shared" si="4"/>
-        <v>1.1121546138082839E-3</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="5"/>
         <v>0.36020200208327863</v>
       </c>
       <c r="P9" s="4">
         <v>0.69750000000000001</v>
       </c>
       <c r="Q9" s="2">
-        <f>K9/(K2*P9*B27*B25)</f>
-        <v>3.0555496069032519E-26</v>
-      </c>
-      <c r="R9" s="9">
+        <f>K9*P2/(K2*P9*B27*B25)</f>
+        <v>9.3443742971944116E-28</v>
+      </c>
+      <c r="R9" s="11">
         <f t="shared" si="10"/>
-        <v>3.0555496069032517E-2</v>
+        <v>9.3443742971944111E-4</v>
       </c>
       <c r="S9" s="2">
         <f>SQRT(POWER(L9/(K2*P9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*P9*B27*B25),2)+POWER(K9*C27/(K2*P9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*P9*B27*POWER(B25,2)),2))</f>
-        <v>1.7511360815465929E-26</v>
-      </c>
-      <c r="T9" s="9">
+        <v>1.3932521690559028E-27</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="5"/>
+        <v>1.3932521690559027E-3</v>
+      </c>
+      <c r="U9" s="11">
         <f t="shared" si="6"/>
-        <v>1.7511360815465928E-2</v>
-      </c>
-      <c r="U9" s="12">
+        <v>1.7347295999573225E-2</v>
+      </c>
+      <c r="V9" s="2">
         <f t="shared" si="7"/>
-        <v>1.7347295999573225E-2</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="8"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
@@ -1735,7 +1734,7 @@
         <v>62.915599999999998</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2454.9296637709926</v>
       </c>
       <c r="J10" s="2">
@@ -1743,50 +1742,50 @@
         <v>2813.5676395888436</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34096245330152675</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="1"/>
-        <v>0.34096245330152675</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0.39077328327622829</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="2"/>
-        <v>0.39077328327622829</v>
-      </c>
-      <c r="M10" s="12">
+        <v>0.28312623479255483</v>
+      </c>
+      <c r="N10" s="11">
         <f t="shared" si="3"/>
-        <v>0.28312623479255483</v>
-      </c>
-      <c r="N10" s="12">
+        <v>3.8879184587797652E-3</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="4"/>
-        <v>3.8879184587797652E-3</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="5"/>
         <v>0.32203280762368441</v>
       </c>
       <c r="P10" s="4">
         <v>0.73260000000000003</v>
       </c>
       <c r="Q10" s="2">
-        <f>K10/(K2*P10*B27*B25)</f>
-        <v>3.5661528615000132E-26</v>
-      </c>
-      <c r="R10" s="9">
+        <f>K10*P2/(K2*P10*B27*B25)</f>
+        <v>1.0905883204638854E-27</v>
+      </c>
+      <c r="R10" s="11">
         <f t="shared" si="10"/>
-        <v>3.5661528615000132E-2</v>
+        <v>1.0905883204638854E-3</v>
       </c>
       <c r="S10" s="2">
         <f>SQRT(POWER(L10/(K2*P10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*P10*B27*B25),2)+POWER(K10*C27/(K2*P10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*P10*B27*POWER(B25,2)),2))</f>
-        <v>4.1028574030437931E-26</v>
-      </c>
-      <c r="T10" s="9">
+        <v>3.2648024769497719E-27</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="5"/>
+        <v>3.264802476949772E-3</v>
+      </c>
+      <c r="U10" s="11">
         <f t="shared" si="6"/>
-        <v>4.1028574030437928E-2</v>
-      </c>
-      <c r="U10" s="12">
+        <v>1.4570392197332485E-2</v>
+      </c>
+      <c r="V10" s="2">
         <f t="shared" si="7"/>
-        <v>1.4570392197332485E-2</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="8"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
@@ -1816,7 +1815,7 @@
         <v>51.051699999999997</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3949.1012714286776</v>
       </c>
       <c r="J11" s="2">
@@ -1824,50 +1823,50 @@
         <v>3663.9370993803864</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36565752513228494</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="1"/>
-        <v>0.36565752513228494</v>
-      </c>
-      <c r="L11" s="2">
+        <v>0.33925343512781353</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="2"/>
-        <v>0.33925343512781353</v>
-      </c>
-      <c r="M11" s="12">
+        <v>0.27400090118193476</v>
+      </c>
+      <c r="N11" s="11">
         <f t="shared" si="3"/>
-        <v>0.27400090118193476</v>
-      </c>
-      <c r="N11" s="12">
+        <v>3.779177099759409E-3</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="4"/>
-        <v>3.779177099759409E-3</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="5"/>
         <v>0.29030620042535898</v>
       </c>
       <c r="P11" s="4">
         <v>0.76590000000000003</v>
       </c>
       <c r="Q11" s="2">
-        <f>K11/(K2*P11*B27*B25)</f>
-        <v>3.6581605180795413E-26</v>
-      </c>
-      <c r="R11" s="9">
+        <f>K11*P2/(K2*P11*B27*B25)</f>
+        <v>1.118725778266712E-27</v>
+      </c>
+      <c r="R11" s="11">
         <f t="shared" si="10"/>
-        <v>3.658160518079541E-2</v>
+        <v>1.118725778266712E-3</v>
       </c>
       <c r="S11" s="2">
         <f>SQRT(POWER(L11/(K2*P11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*P11*B27*B25),2)+POWER(K11*C27/(K2*P11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*P11*B27*POWER(B25,2)),2))</f>
-        <v>3.413916489642537E-26</v>
-      </c>
-      <c r="T11" s="9">
+        <v>2.7165204370558168E-27</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="5"/>
+        <v>2.7165204370558169E-3</v>
+      </c>
+      <c r="U11" s="11">
         <f t="shared" si="6"/>
-        <v>3.4139164896425371E-2</v>
-      </c>
-      <c r="U11" s="12">
+        <v>1.2957388325761274E-2</v>
+      </c>
+      <c r="V11" s="2">
         <f t="shared" si="7"/>
-        <v>1.2957388325761274E-2</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="8"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
@@ -1897,7 +1896,7 @@
         <v>7.7577499999999994E-2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>18.297372134349907</v>
       </c>
       <c r="J12" s="2">
@@ -1905,50 +1904,50 @@
         <v>11.162236819594124</v>
       </c>
       <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1486860671749534E-2</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="1"/>
-        <v>9.1486860671749534E-2</v>
-      </c>
-      <c r="L12" s="2">
+        <v>5.5811184097970618E-2</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="2"/>
-        <v>5.5811184097970618E-2</v>
-      </c>
-      <c r="M12" s="12">
+        <v>0.56067987244809547</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="3"/>
-        <v>0.56067987244809547</v>
-      </c>
-      <c r="N12" s="12">
+        <v>1.088968449931462E-4</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="4"/>
-        <v>1.088968449931462E-4</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="5"/>
         <v>0.65789319321946138</v>
       </c>
       <c r="P12" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="Q12" s="2">
-        <f>K12/(K2*P12*B27*B25)</f>
-        <v>1.5212709320811516E-26</v>
-      </c>
-      <c r="R12" s="9">
+        <f>K12*P2/(K2*P12*B27*B25)</f>
+        <v>4.6522972380131287E-28</v>
+      </c>
+      <c r="R12" s="11">
         <f t="shared" si="10"/>
-        <v>1.5212709320811516E-2</v>
+        <v>4.6522972380131289E-4</v>
       </c>
       <c r="S12" s="2">
         <f>SQRT(POWER(L12/(K2*P12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*P12*B27*B25),2)+POWER(K12*C27/(K2*P12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*P12*B27*POWER(B25,2)),2))</f>
-        <v>9.4059030872556428E-27</v>
-      </c>
-      <c r="T12" s="9">
+        <v>7.4837917624734267E-28</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="5"/>
+        <v>7.4837917624734265E-4</v>
+      </c>
+      <c r="U12" s="11">
         <f t="shared" si="6"/>
-        <v>9.4059030872556421E-3</v>
-      </c>
-      <c r="U12" s="12">
+        <v>7.517740944578237E-2</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" si="7"/>
-        <v>7.517740944578237E-2</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="8"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
@@ -1978,7 +1977,7 @@
         <v>22.470099999999999</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4630.1292600338747</v>
       </c>
       <c r="J13" s="2">
@@ -1986,50 +1985,50 @@
         <v>550.95652358657924</v>
       </c>
       <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7168821000564582</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="1"/>
-        <v>7.7168821000564582</v>
-      </c>
-      <c r="L13" s="2">
+        <v>0.91826087264429868</v>
+      </c>
+      <c r="M13" s="11">
         <f t="shared" si="2"/>
-        <v>0.91826087264429868</v>
-      </c>
-      <c r="M13" s="12">
+        <v>0.5367118990676234</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="3"/>
-        <v>0.5367118990676234</v>
-      </c>
-      <c r="N13" s="12">
+        <v>1.2442265230699476E-3</v>
+      </c>
+      <c r="O13" s="11">
         <f t="shared" si="4"/>
-        <v>1.2442265230699476E-3</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="5"/>
         <v>0.62182355639796505</v>
       </c>
       <c r="P13" s="4">
         <v>0.48780000000000001</v>
       </c>
       <c r="Q13" s="2">
-        <f>K13/(K2*P13*B27*B25)</f>
-        <v>1.2121612074669081E-24</v>
-      </c>
-      <c r="R13" s="9">
+        <f>K13*P2/(K2*P13*B27*B25)</f>
+        <v>3.7069887543372378E-26</v>
+      </c>
+      <c r="R13" s="11">
         <f t="shared" si="10"/>
-        <v>1.2121612074669081</v>
+        <v>3.7069887543372378E-2</v>
       </c>
       <c r="S13" s="2">
         <f>SQRT(POWER(L13/(K2*P13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*P13*B27*B25),2)+POWER(K13*C27/(K2*P13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*P13*B27*POWER(B25,2)),2))</f>
-        <v>1.8891466774800232E-25</v>
-      </c>
-      <c r="T13" s="9">
+        <v>1.499556283498037E-26</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="5"/>
+        <v>1.499556283498037E-2</v>
+      </c>
+      <c r="U13" s="11">
         <f t="shared" si="6"/>
-        <v>0.18891466774800231</v>
-      </c>
-      <c r="U13" s="12">
+        <v>6.4384737830657068E-2</v>
+      </c>
+      <c r="V13" s="2">
         <f t="shared" si="7"/>
-        <v>6.4384737830657068E-2</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
@@ -2059,7 +2058,7 @@
         <v>110.55200000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2956.658282151835</v>
       </c>
       <c r="J14" s="2">
@@ -2067,50 +2066,50 @@
         <v>2494.0583918090688</v>
       </c>
       <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6958228526897936</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="1"/>
-        <v>3.6958228526897936</v>
-      </c>
-      <c r="L14" s="2">
+        <v>3.117572989761336</v>
+      </c>
+      <c r="M14" s="11">
         <f t="shared" si="2"/>
-        <v>3.117572989761336</v>
-      </c>
-      <c r="M14" s="12">
+        <v>0.53870316453502487</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="3"/>
-        <v>0.53870316453502487</v>
-      </c>
-      <c r="N14" s="12">
+        <v>4.7499904299684922E-3</v>
+      </c>
+      <c r="O14" s="11">
         <f t="shared" si="4"/>
-        <v>4.7499904299684922E-3</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="5"/>
         <v>0.57072967889430926</v>
       </c>
       <c r="P14" s="4">
         <v>0.46079999999999999</v>
       </c>
       <c r="Q14" s="2">
-        <f>K14/(K2*P14*B27*B25)</f>
-        <v>6.1455249799104341E-25</v>
-      </c>
-      <c r="R14" s="9">
+        <f>K14*P2/(K2*P14*B27*B25)</f>
+        <v>1.8794028261004617E-26</v>
+      </c>
+      <c r="R14" s="11">
         <f t="shared" si="10"/>
-        <v>0.61455249799104339</v>
+        <v>1.8794028261004618E-2</v>
       </c>
       <c r="S14" s="2">
         <f>SQRT(POWER(L14/(K2*P14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*P14*B27*B25),2)+POWER(K14*C27/(K2*P14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*P14*B27*POWER(B25,2)),2))</f>
-        <v>5.2207622609595199E-25</v>
-      </c>
-      <c r="T14" s="9">
+        <v>4.1542029482529437E-26</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="5"/>
+        <v>4.1542029482529434E-2</v>
+      </c>
+      <c r="U14" s="11">
         <f t="shared" si="6"/>
-        <v>0.52207622609595195</v>
-      </c>
-      <c r="U14" s="12">
+        <v>5.1006364300052669E-2</v>
+      </c>
+      <c r="V14" s="2">
         <f t="shared" si="7"/>
-        <v>5.1006364300052669E-2</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
@@ -2140,7 +2139,7 @@
         <v>86.297499999999999</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2926.4483603959006</v>
       </c>
       <c r="J15" s="2">
@@ -2148,50 +2147,50 @@
         <v>2006.188194800844</v>
       </c>
       <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2511141233814622</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="1"/>
-        <v>2.2511141233814622</v>
-      </c>
-      <c r="L15" s="2">
+        <v>1.5432216883083416</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="2"/>
-        <v>1.5432216883083416</v>
-      </c>
-      <c r="M15" s="12">
+        <v>0.49578784097604939</v>
+      </c>
+      <c r="N15" s="11">
         <f t="shared" si="3"/>
-        <v>0.49578784097604939</v>
-      </c>
-      <c r="N15" s="12">
+        <v>4.2247499509984066E-3</v>
+      </c>
+      <c r="O15" s="11">
         <f t="shared" si="4"/>
-        <v>4.2247499509984066E-3</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="5"/>
         <v>0.51346870699924607</v>
       </c>
       <c r="P15" s="4">
         <v>0.504</v>
       </c>
       <c r="Q15" s="2">
-        <f>K15/(K2*P15*B27*B25)</f>
-        <v>3.4223725860797291E-25</v>
-      </c>
-      <c r="R15" s="9">
+        <f>K15*P2/(K2*P15*B27*B25)</f>
+        <v>1.0466179425310431E-26</v>
+      </c>
+      <c r="R15" s="11">
         <f t="shared" si="10"/>
-        <v>0.34223725860797288</v>
+        <v>1.046617942531043E-2</v>
       </c>
       <c r="S15" s="2">
         <f>SQRT(POWER(L15/(K2*P15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*P15*B27*B25),2)+POWER(K15*C27/(K2*P15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*P15*B27*POWER(B25,2)),2))</f>
-        <v>2.3713123295878307E-25</v>
-      </c>
-      <c r="T15" s="9">
+        <v>1.8867922151034785E-26</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="5"/>
+        <v>1.8867922151034784E-2</v>
+      </c>
+      <c r="U15" s="11">
         <f t="shared" si="6"/>
-        <v>0.23713123295878308</v>
-      </c>
-      <c r="U15" s="12">
+        <v>3.8556169723405753E-2</v>
+      </c>
+      <c r="V15" s="2">
         <f t="shared" si="7"/>
-        <v>3.8556169723405753E-2</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
@@ -2248,7 +2247,7 @@
       <c r="B21">
         <v>13</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2287,8 +2286,8 @@
         <v>33</v>
       </c>
       <c r="B25" s="5">
-        <f>POWER(3.81,2)/(4*POWER(36.1,2))</f>
-        <v>2.7846816706440249E-3</v>
+        <f>POWER(3.81,2)*4*3.14159/(4*POWER(36.1,2))</f>
+        <v>3.4993312358714244E-2</v>
       </c>
       <c r="C25" s="5">
         <f>POWER(3.81,2)/(2*POWER(36.1,3))*0.2</f>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Element</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>alternate for -40</t>
+  </si>
+  <si>
+    <t>Efficiency Err</t>
   </si>
 </sst>
 </file>
@@ -974,10 +977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -985,14 +988,14 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="10.83203125" style="9"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="9"/>
-    <col min="21" max="21" width="10.83203125" style="11"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="9"/>
+    <col min="22" max="22" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,25 +1045,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1086,20 +1092,20 @@
         <v>0.33175700000000002</v>
       </c>
       <c r="I2" s="2">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/40.96</f>
-        <v>358929.75267733698</v>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*P2)</f>
+        <v>933983.22320410365</v>
       </c>
       <c r="J2" s="2">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2,2)+POWER(G2*D2,2)))</f>
-        <v>933.44421215607497</v>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/P2,2)+POWER(G2*D2/P2,2)+POWER(C2*G2*Q2/POWER(P2,2),2)))</f>
+        <v>46762.286461201053</v>
       </c>
       <c r="K2" s="2">
         <f>I2/B2</f>
-        <v>5982.1625446222833</v>
+        <v>15566.387053401728</v>
       </c>
       <c r="L2" s="2">
         <f>J2/B2</f>
-        <v>15.557403535934583</v>
+        <v>779.37144102001753</v>
       </c>
       <c r="M2" s="11">
         <f>(E2+61.6)/11540.4</f>
@@ -1116,32 +1122,36 @@
       <c r="P2" s="4">
         <v>0.38429999999999997</v>
       </c>
-      <c r="Q2" s="2">
-        <f>K2*P2/(K2*P2*B27*B25)</f>
-        <v>3.6476152629988443E-23</v>
-      </c>
-      <c r="R2" s="11">
-        <f>Q2*1E+24</f>
-        <v>36.476152629988441</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="Q2" s="4">
+        <f>P2*0.05</f>
+        <v>1.9214999999999999E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <f>K2/(K2*P2*B27*B25)</f>
+        <v>9.4915827816779713E-23</v>
+      </c>
+      <c r="S2" s="11">
+        <f>R2*1E+24</f>
+        <v>94.915827816779711</v>
+      </c>
+      <c r="T2" s="2">
         <f>SQRT(POWER(L2/(K2*P2*B27*B25),2)+POWER(K2*L2/(POWER(K2,2)*P2*B27*B25),2)+POWER(K2*C27/(K2*P2*POWER(B27,2)*B25),2)+POWER(K2*C25/(K2*P2*B27*POWER(B25,2)),2))</f>
-        <v>9.4983687592287661E-24</v>
-      </c>
-      <c r="T2" s="11">
-        <f>S2*1E+24</f>
-        <v>9.4983687592287662</v>
+        <v>1.1630308720623708E-23</v>
       </c>
       <c r="U2" s="11">
-        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V2,2)*(V2+1/V2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+        <f>T2*1E+24</f>
+        <v>11.630308720623708</v>
+      </c>
+      <c r="V2" s="11">
+        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W2,2)*(W2+1/W2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
         <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>36.712200000000003</v>
       </c>
       <c r="I3" s="3">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G3*C3/40.96</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G3*C3/B17</f>
         <v>1134.1453327589772</v>
       </c>
       <c r="J3" s="2">
@@ -1197,32 +1207,36 @@
       <c r="P3" s="4">
         <v>0.40589999999999998</v>
       </c>
-      <c r="Q3" s="2">
-        <f>K3*P2/(K2*P3*B27*B25)</f>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q15" si="5">P3*0.05</f>
+        <v>2.0295000000000001E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <f>K3/(K2*P3*B27*B25)</f>
         <v>3.2737149551889501E-26</v>
       </c>
-      <c r="R3" s="11">
-        <f>Q3*1E+24</f>
+      <c r="S3" s="11">
+        <f>R3*1E+24</f>
         <v>3.2737149551889499E-2</v>
       </c>
-      <c r="S3" s="2">
-        <f>SQRT(POWER(L3/(K2*P3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*P3*B27*B25),2)+POWER(K3*C27/(K2*P3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*P3*B27*POWER(B25,2)),2))</f>
-        <v>2.3500083421603371E-26</v>
-      </c>
-      <c r="T3" s="11">
-        <f t="shared" ref="T3:T15" si="5">S3*1E+24</f>
-        <v>2.3500083421603372E-2</v>
+      <c r="T3" s="2">
+        <f>SQRT(POWER(L3/(K2*P3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*P3*B27*B25),2)+POWER(K3*C27/(K2*P3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*P3*B27*POWER(B25,2)),2)+POWER(K3*Q3/(K2*POWER(P3,2)*B27*B25),2))</f>
+        <v>9.3230385582652125E-27</v>
       </c>
       <c r="U3" s="11">
-        <f t="shared" ref="U3:U15" si="6">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(V3,2)*(V3+1/V3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+        <f t="shared" ref="U3:U15" si="6">T3*1E+24</f>
+        <v>9.3230385582652123E-3</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" ref="V3:V15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W3,2)*(W3+1/W3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="V3" s="2">
-        <f t="shared" ref="V3:V15" si="7">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1248,7 +1262,7 @@
         <v>42.040399999999998</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I15" si="8" xml:space="preserve"> SQRT(2*3.14159)*G4*C4/40.96</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G4*C4/B17</f>
         <v>4103.9246031982575</v>
       </c>
       <c r="J4" s="2">
@@ -1278,32 +1292,36 @@
       <c r="P4" s="4">
         <v>0.43380000000000002</v>
       </c>
-      <c r="Q4" s="2">
-        <f>K4*P2/(K2*P4*B27*B25)</f>
+      <c r="Q4" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <f>K4/(K2*P4*B27*B25)</f>
         <v>3.6947050548532581E-26</v>
       </c>
-      <c r="R4" s="11">
-        <f>Q4*1E+24</f>
+      <c r="S4" s="11">
+        <f>R4*1E+24</f>
         <v>3.6947050548532583E-2</v>
       </c>
-      <c r="S4" s="2">
-        <f>SQRT(POWER(L4/(K2*P4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*P4*B27*B25),2)+POWER(K4*C27/(K2*P4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*P4*B27*POWER(B25,2)),2))</f>
-        <v>3.1945614899126363E-26</v>
-      </c>
-      <c r="T4" s="11">
-        <f t="shared" si="5"/>
-        <v>3.1945614899126361E-2</v>
+      <c r="T4" s="2">
+        <f>SQRT(POWER(L4/(K2*P4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*P4*B27*B25),2)+POWER(K4*C27/(K2*P4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*P4*B27*POWER(B25,2)),2)+POWER(K4*Q4/(K2*POWER(P4,2)*B27*B25),2))</f>
+        <v>1.2551604711800588E-26</v>
       </c>
       <c r="U4" s="11">
         <f t="shared" si="6"/>
+        <v>1.2551604711800588E-2</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="V4" s="2">
-        <f t="shared" si="7"/>
+      <c r="W4" s="2">
+        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>11.1846</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G5*C5/B17</f>
         <v>8260.4505931587355</v>
       </c>
       <c r="J5" s="2">
@@ -1359,32 +1377,36 @@
       <c r="P5" s="4">
         <v>0.44819999999999999</v>
       </c>
-      <c r="Q5" s="2">
-        <f>K5*P2/(K2*P5*B27*B25)</f>
-        <v>5.3983756033966302E-26</v>
-      </c>
-      <c r="R5" s="11">
-        <f t="shared" ref="R5:R15" si="10">Q5*1E+24</f>
-        <v>5.3983756033966303E-2</v>
-      </c>
-      <c r="S5" s="2">
-        <f>SQRT(POWER(L5/(K2*P5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*P5*B27*B25),2)+POWER(K5*C27/(K2*P5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*P5*B27*POWER(B25,2)),2))</f>
-        <v>1.6299056831568872E-26</v>
-      </c>
-      <c r="T5" s="11">
+      <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>1.6299056831568872E-2</v>
+        <v>2.2409999999999999E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <f>K5/(K2*P5*B27*B25)</f>
+        <v>5.3983756033966313E-26</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" ref="S5:S15" si="10">R5*1E+24</f>
+        <v>5.398375603396631E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <f>SQRT(POWER(L5/(K2*P5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*P5*B27*B25),2)+POWER(K5*C27/(K2*P5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*P5*B27*POWER(B25,2)),2)+POWER(K5*Q5/(K2*POWER(P5,2)*B27*B25),2))</f>
+        <v>7.335224078219261E-27</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="6"/>
+        <v>7.3352240782192605E-3</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="V5" s="2">
-        <f t="shared" si="7"/>
+      <c r="W5" s="2">
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1410,7 +1432,7 @@
         <v>26.597100000000001</v>
       </c>
       <c r="I6" s="3">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G6*C6/40.96</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G6*C6/B17</f>
         <v>8437.0389426077727</v>
       </c>
       <c r="J6" s="2">
@@ -1440,32 +1462,36 @@
       <c r="P6" s="4">
         <v>0.5544</v>
       </c>
-      <c r="Q6" s="2">
-        <f>K6*P2/(K2*P6*B27*B25)</f>
-        <v>2.7431191954753934E-26</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="Q6" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7720000000000002E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <f>K6/(K2*P6*B27*B25)</f>
+        <v>2.7431191954753928E-26</v>
+      </c>
+      <c r="S6" s="11">
         <f t="shared" si="10"/>
-        <v>2.7431191954753933E-2</v>
-      </c>
-      <c r="S6" s="2">
-        <f>SQRT(POWER(L6/(K2*P6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*P6*B27*B25),2)+POWER(K6*C27/(K2*P6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*P6*B27*POWER(B25,2)),2))</f>
-        <v>1.2130305869483368E-26</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="5"/>
-        <v>1.2130305869483368E-2</v>
+        <v>2.7431191954753929E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <f>SQRT(POWER(L6/(K2*P6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*P6*B27*B25),2)+POWER(K6*C27/(K2*P6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*P6*B27*POWER(B25,2)),2)+POWER(K6*Q6/(K2*POWER(P6,2)*B27*B25),2))</f>
+        <v>5.0491167224065807E-27</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="6"/>
+        <v>5.0491167224065809E-3</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
-      <c r="V6" s="2">
-        <f t="shared" si="7"/>
+      <c r="W6" s="2">
+        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1491,7 +1517,7 @@
         <v>19.2317</v>
       </c>
       <c r="I7" s="3">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G7*C7/40.96</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G7*C7/B17</f>
         <v>4454.9572381897351</v>
       </c>
       <c r="J7" s="2">
@@ -1521,32 +1547,36 @@
       <c r="P7" s="4">
         <v>0.60929999999999995</v>
       </c>
-      <c r="Q7" s="2">
-        <f>K7*P2/(K2*P7*B27*B25)</f>
+      <c r="Q7" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0464999999999999E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <f>K7/(K2*P7*B27*B25)</f>
         <v>1.1422003844227093E-26</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <f t="shared" si="10"/>
         <v>1.1422003844227093E-2</v>
       </c>
-      <c r="S7" s="2">
-        <f>SQRT(POWER(L7/(K2*P7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*P7*B27*B25),2)+POWER(K7*C27/(K2*P7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*P7*B27*POWER(B25,2)),2))</f>
-        <v>5.1632600313744812E-27</v>
-      </c>
-      <c r="T7" s="11">
-        <f t="shared" si="5"/>
-        <v>5.1632600313744814E-3</v>
+      <c r="T7" s="2">
+        <f>SQRT(POWER(L7/(K2*P7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*P7*B27*B25),2)+POWER(K7*C27/(K2*P7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*P7*B27*POWER(B25,2)),2)+POWER(K7*Q7/(K2*POWER(P7,2)*B27*B25),2))</f>
+        <v>2.142317093885457E-27</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" si="6"/>
+        <v>2.1423170938854571E-3</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="7"/>
         <v>2.8763760580229697E-2</v>
       </c>
-      <c r="V7" s="2">
-        <f t="shared" si="7"/>
+      <c r="W7" s="2">
+        <f t="shared" si="8"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1572,7 +1602,7 @@
         <v>57.789200000000001</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G8*C8/B17</f>
         <v>2541.508956638771</v>
       </c>
       <c r="J8" s="2">
@@ -1602,32 +1632,36 @@
       <c r="P8" s="4">
         <v>0.66239999999999999</v>
       </c>
-      <c r="Q8" s="2">
-        <f>K8*P2/(K2*P8*B27*B25)</f>
-        <v>4.9948219907725335E-27</v>
-      </c>
-      <c r="R8" s="11">
+      <c r="Q8" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3120000000000004E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <f>K8/(K2*P8*B27*B25)</f>
+        <v>4.9948219907725327E-27</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="10"/>
-        <v>4.9948219907725334E-3</v>
-      </c>
-      <c r="S8" s="2">
-        <f>SQRT(POWER(L8/(K2*P8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*P8*B27*B25),2)+POWER(K8*C27/(K2*P8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*P8*B27*POWER(B25,2)),2))</f>
-        <v>9.0147332670213611E-27</v>
-      </c>
-      <c r="T8" s="11">
-        <f t="shared" si="5"/>
-        <v>9.0147332670213604E-3</v>
+        <v>4.9948219907725326E-3</v>
+      </c>
+      <c r="T8" s="2">
+        <f>SQRT(POWER(L8/(K2*P8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*P8*B27*B25),2)+POWER(K8*C27/(K2*P8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*P8*B27*POWER(B25,2)),2)+POWER(K8*Q8/(K2*POWER(P8,2)*B27*B25),2))</f>
+        <v>3.4823189490117849E-27</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="6"/>
+        <v>3.4823189490117848E-3</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="7"/>
         <v>2.18590607833666E-2</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" si="7"/>
+      <c r="W8" s="2">
+        <f t="shared" si="8"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1653,7 +1687,7 @@
         <v>12.5046</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G9*C9/B17</f>
         <v>584.1071647539269</v>
       </c>
       <c r="J9" s="2">
@@ -1683,32 +1717,36 @@
       <c r="P9" s="4">
         <v>0.69750000000000001</v>
       </c>
-      <c r="Q9" s="2">
-        <f>K9*P2/(K2*P9*B27*B25)</f>
+      <c r="Q9" s="4">
+        <f t="shared" si="5"/>
+        <v>3.4875000000000003E-2</v>
+      </c>
+      <c r="R9" s="2">
+        <f>K9/(K2*P9*B27*B25)</f>
         <v>9.3443742971944116E-28</v>
       </c>
-      <c r="R9" s="11">
+      <c r="S9" s="11">
         <f t="shared" si="10"/>
         <v>9.3443742971944111E-4</v>
       </c>
-      <c r="S9" s="2">
-        <f>SQRT(POWER(L9/(K2*P9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*P9*B27*B25),2)+POWER(K9*C27/(K2*P9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*P9*B27*POWER(B25,2)),2))</f>
-        <v>1.3932521690559028E-27</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="5"/>
-        <v>1.3932521690559027E-3</v>
+      <c r="T9" s="2">
+        <f>SQRT(POWER(L9/(K2*P9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*P9*B27*B25),2)+POWER(K9*C27/(K2*P9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*P9*B27*POWER(B25,2)),2)+POWER(K9*Q9/(K2*POWER(P9,2)*B27*B25),2))</f>
+        <v>5.3948840013832891E-28</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="6"/>
+        <v>5.3948840013832891E-4</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="7"/>
         <v>1.7347295999573225E-2</v>
       </c>
-      <c r="V9" s="2">
-        <f t="shared" si="7"/>
+      <c r="W9" s="2">
+        <f t="shared" si="8"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1734,7 +1772,7 @@
         <v>62.915599999999998</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G10*C10/B17</f>
         <v>2454.9296637709926</v>
       </c>
       <c r="J10" s="2">
@@ -1764,32 +1802,36 @@
       <c r="P10" s="4">
         <v>0.73260000000000003</v>
       </c>
-      <c r="Q10" s="2">
-        <f>K10*P2/(K2*P10*B27*B25)</f>
-        <v>1.0905883204638854E-27</v>
-      </c>
-      <c r="R10" s="11">
+      <c r="Q10" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="R10" s="2">
+        <f>K10/(K2*P10*B27*B25)</f>
+        <v>1.0905883204638855E-27</v>
+      </c>
+      <c r="S10" s="11">
         <f t="shared" si="10"/>
         <v>1.0905883204638854E-3</v>
       </c>
-      <c r="S10" s="2">
-        <f>SQRT(POWER(L10/(K2*P10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*P10*B27*B25),2)+POWER(K10*C27/(K2*P10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*P10*B27*POWER(B25,2)),2))</f>
-        <v>3.2648024769497719E-27</v>
-      </c>
-      <c r="T10" s="11">
-        <f t="shared" si="5"/>
-        <v>3.264802476949772E-3</v>
+      <c r="T10" s="2">
+        <f>SQRT(POWER(L10/(K2*P10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*P10*B27*B25),2)+POWER(K10*C27/(K2*P10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*P10*B27*POWER(B25,2)),2)+POWER(K10*Q10/(K2*POWER(P10,2)*B27*B25),2))</f>
+        <v>1.2570312817279003E-27</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="6"/>
+        <v>1.2570312817279004E-3</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="7"/>
         <v>1.4570392197332485E-2</v>
       </c>
-      <c r="V10" s="2">
-        <f t="shared" si="7"/>
+      <c r="W10" s="2">
+        <f t="shared" si="8"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1815,7 +1857,7 @@
         <v>51.051699999999997</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G11*C11/B17</f>
         <v>3949.1012714286776</v>
       </c>
       <c r="J11" s="2">
@@ -1845,32 +1887,36 @@
       <c r="P11" s="4">
         <v>0.76590000000000003</v>
       </c>
-      <c r="Q11" s="2">
-        <f>K11*P2/(K2*P11*B27*B25)</f>
-        <v>1.118725778266712E-27</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="Q11" s="4">
+        <f t="shared" si="5"/>
+        <v>3.8295000000000003E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <f>K11/(K2*P11*B27*B25)</f>
+        <v>1.1187257782667118E-27</v>
+      </c>
+      <c r="S11" s="11">
         <f t="shared" si="10"/>
-        <v>1.118725778266712E-3</v>
-      </c>
-      <c r="S11" s="2">
-        <f>SQRT(POWER(L11/(K2*P11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*P11*B27*B25),2)+POWER(K11*C27/(K2*P11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*P11*B27*POWER(B25,2)),2))</f>
-        <v>2.7165204370558168E-27</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" si="5"/>
-        <v>2.7165204370558169E-3</v>
+        <v>1.1187257782667118E-3</v>
+      </c>
+      <c r="T11" s="2">
+        <f>SQRT(POWER(L11/(K2*P11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*P11*B27*B25),2)+POWER(K11*C27/(K2*P11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*P11*B27*POWER(B25,2)),2)+POWER(K11*Q11/(K2*POWER(P11,2)*B27*B25),2))</f>
+        <v>1.0469516326944308E-27</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="6"/>
+        <v>1.0469516326944309E-3</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="7"/>
         <v>1.2957388325761274E-2</v>
       </c>
-      <c r="V11" s="2">
-        <f t="shared" si="7"/>
+      <c r="W11" s="2">
+        <f t="shared" si="8"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>-10</v>
       </c>
@@ -1896,7 +1942,7 @@
         <v>7.7577499999999994E-2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G12*C12/B17</f>
         <v>18.297372134349907</v>
       </c>
       <c r="J12" s="2">
@@ -1926,32 +1972,36 @@
       <c r="P12" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="Q12" s="2">
-        <f>K12*P2/(K2*P12*B27*B25)</f>
-        <v>4.6522972380131287E-28</v>
-      </c>
-      <c r="R12" s="11">
+      <c r="Q12" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <f>K12/(K2*P12*B27*B25)</f>
+        <v>4.6522972380131278E-28</v>
+      </c>
+      <c r="S12" s="11">
         <f t="shared" si="10"/>
-        <v>4.6522972380131289E-4</v>
-      </c>
-      <c r="S12" s="2">
-        <f>SQRT(POWER(L12/(K2*P12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*P12*B27*B25),2)+POWER(K12*C27/(K2*P12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*P12*B27*POWER(B25,2)),2))</f>
-        <v>7.4837917624734267E-28</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="5"/>
-        <v>7.4837917624734265E-4</v>
+        <v>4.6522972380131278E-4</v>
+      </c>
+      <c r="T12" s="2">
+        <f>SQRT(POWER(L12/(K2*P12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*P12*B27*B25),2)+POWER(K12*C27/(K2*P12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*P12*B27*POWER(B25,2)),2)+POWER(K12*Q12/(K2*POWER(P12,2)*B27*B25),2))</f>
+        <v>2.8947741091633904E-28</v>
       </c>
       <c r="U12" s="11">
         <f t="shared" si="6"/>
+        <v>2.8947741091633905E-4</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="7"/>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="V12" s="2">
-        <f t="shared" si="7"/>
+      <c r="W12" s="2">
+        <f t="shared" si="8"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>-20</v>
       </c>
@@ -1977,7 +2027,7 @@
         <v>22.470099999999999</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G13*C13/B17</f>
         <v>4630.1292600338747</v>
       </c>
       <c r="J13" s="2">
@@ -2007,32 +2057,36 @@
       <c r="P13" s="4">
         <v>0.48780000000000001</v>
       </c>
-      <c r="Q13" s="2">
-        <f>K13*P2/(K2*P13*B27*B25)</f>
-        <v>3.7069887543372378E-26</v>
-      </c>
-      <c r="R13" s="11">
+      <c r="Q13" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4390000000000002E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <f>K13/(K2*P13*B27*B25)</f>
+        <v>3.7069887543372372E-26</v>
+      </c>
+      <c r="S13" s="11">
         <f t="shared" si="10"/>
-        <v>3.7069887543372378E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <f>SQRT(POWER(L13/(K2*P13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*P13*B27*B25),2)+POWER(K13*C27/(K2*P13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*P13*B27*POWER(B25,2)),2))</f>
-        <v>1.499556283498037E-26</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" si="5"/>
-        <v>1.499556283498037E-2</v>
+        <v>3.7069887543372371E-2</v>
+      </c>
+      <c r="T13" s="2">
+        <f>SQRT(POWER(L13/(K2*P13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*P13*B27*B25),2)+POWER(K13*C27/(K2*P13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*P13*B27*POWER(B25,2)),2)+POWER(K13*Q13/(K2*POWER(P13,2)*B27*B25),2))</f>
+        <v>6.3309309497330632E-27</v>
       </c>
       <c r="U13" s="11">
         <f t="shared" si="6"/>
+        <v>6.3309309497330633E-3</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="V13" s="2">
-        <f t="shared" si="7"/>
+      <c r="W13" s="2">
+        <f t="shared" si="8"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>-30</v>
       </c>
@@ -2058,7 +2112,7 @@
         <v>110.55200000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G14*C14/B17</f>
         <v>2956.658282151835</v>
       </c>
       <c r="J14" s="2">
@@ -2088,32 +2142,36 @@
       <c r="P14" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="Q14" s="2">
-        <f>K14*P2/(K2*P14*B27*B25)</f>
-        <v>1.8794028261004617E-26</v>
-      </c>
-      <c r="R14" s="11">
+      <c r="Q14" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <f>K14/(K2*P14*B27*B25)</f>
+        <v>1.8794028261004614E-26</v>
+      </c>
+      <c r="S14" s="11">
         <f t="shared" si="10"/>
-        <v>1.8794028261004618E-2</v>
-      </c>
-      <c r="S14" s="2">
-        <f>SQRT(POWER(L14/(K2*P14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*P14*B27*B25),2)+POWER(K14*C27/(K2*P14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*P14*B27*POWER(B25,2)),2))</f>
-        <v>4.1542029482529437E-26</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="5"/>
-        <v>4.1542029482529434E-2</v>
+        <v>1.8794028261004615E-2</v>
+      </c>
+      <c r="T14" s="2">
+        <f>SQRT(POWER(L14/(K2*P14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*P14*B27*B25),2)+POWER(K14*C27/(K2*P14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*P14*B27*POWER(B25,2)),2))+POWER(K14*Q14/(K2*POWER(P14,2)*B27*B25),2)</f>
+        <v>1.599223416328665E-26</v>
       </c>
       <c r="U14" s="11">
         <f t="shared" si="6"/>
+        <v>1.5992234163286649E-2</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="V14" s="2">
-        <f t="shared" si="7"/>
+      <c r="W14" s="2">
+        <f t="shared" si="8"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>-40</v>
       </c>
@@ -2139,7 +2197,7 @@
         <v>86.297499999999999</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G15*C15/B17</f>
         <v>2926.4483603959006</v>
       </c>
       <c r="J15" s="2">
@@ -2169,32 +2227,36 @@
       <c r="P15" s="4">
         <v>0.504</v>
       </c>
-      <c r="Q15" s="2">
-        <f>K15*P2/(K2*P15*B27*B25)</f>
+      <c r="Q15" s="4">
+        <f t="shared" si="5"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <f>K15/(K2*P15*B27*B25)</f>
         <v>1.0466179425310431E-26</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <f t="shared" si="10"/>
         <v>1.046617942531043E-2</v>
       </c>
-      <c r="S15" s="2">
-        <f>SQRT(POWER(L15/(K2*P15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*P15*B27*B25),2)+POWER(K15*C27/(K2*P15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*P15*B27*POWER(B25,2)),2))</f>
-        <v>1.8867922151034785E-26</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="5"/>
-        <v>1.8867922151034784E-2</v>
+      <c r="T15" s="2">
+        <f>SQRT(POWER(L15/(K2*P15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*P15*B27*B25),2)+POWER(K15*C27/(K2*P15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*P15*B27*POWER(B25,2)),2)+POWER(K15*Q15/(K2*POWER(P15,2)*B27*B25),2))</f>
+        <v>7.2886124499390246E-27</v>
       </c>
       <c r="U15" s="11">
         <f t="shared" si="6"/>
+        <v>7.2886124499390243E-3</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
-      <c r="V15" s="2">
-        <f t="shared" si="7"/>
+      <c r="W15" s="2">
+        <f t="shared" si="8"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2300,11 +2362,11 @@
       </c>
       <c r="B26" s="2">
         <f>K2</f>
-        <v>5982.1625446222833</v>
+        <v>15566.387053401728</v>
       </c>
       <c r="C26" s="2">
         <f>L2</f>
-        <v>15.557403535934583</v>
+        <v>779.37144102001753</v>
       </c>
     </row>
     <row r="27" spans="1:14">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Element</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t>Efficiency Err</t>
+  </si>
+  <si>
+    <t>Chi 2</t>
+  </si>
+  <si>
+    <t>DOF</t>
+  </si>
+  <si>
+    <t>SUM Chi 2</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Cross Sec</t>
+  </si>
+  <si>
+    <t>Chi 2/DOF</t>
   </si>
 </sst>
 </file>
@@ -259,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,6 +290,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -988,14 +1010,16 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="10.83203125" style="9"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="9"/>
-    <col min="22" max="22" width="10.83203125" style="11"/>
+    <col min="16" max="16" width="10.83203125" style="14"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="9"/>
+    <col min="23" max="23" width="10.83203125" style="11"/>
+    <col min="24" max="24" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,32 +1065,38 @@
       <c r="O1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1092,11 +1122,11 @@
         <v>0.33175700000000002</v>
       </c>
       <c r="I2" s="2">
-        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*P2)</f>
+        <f xml:space="preserve"> SQRT(2*3.14159)*G2*C2/(B17*Q2)</f>
         <v>933983.22320410365</v>
       </c>
       <c r="J2" s="2">
-        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/P2,2)+POWER(G2*D2/P2,2)+POWER(C2*G2*Q2/POWER(P2,2),2)))</f>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C2*H2/Q2,2)+POWER(G2*D2/Q2,2)+POWER(C2*G2*R2/POWER(Q2,2),2)))</f>
         <v>46762.286461201053</v>
       </c>
       <c r="K2" s="2">
@@ -1119,39 +1149,47 @@
         <f>0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>0.67100000000000004</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="13">
+        <f>POWER((M2-O2)/N2,2)</f>
+        <v>0.49948300312974442</v>
+      </c>
+      <c r="Q2" s="4">
         <v>0.38429999999999997</v>
       </c>
-      <c r="Q2" s="4">
-        <f>P2*0.05</f>
+      <c r="R2" s="4">
+        <f>Q2*0.05</f>
         <v>1.9214999999999999E-2</v>
       </c>
-      <c r="R2" s="2">
-        <f>K2/(K2*P2*B27*B25)</f>
+      <c r="S2" s="2">
+        <f>K2/(K2*Q2*B27*B25)</f>
         <v>9.4915827816779713E-23</v>
       </c>
-      <c r="S2" s="11">
-        <f>R2*1E+24</f>
+      <c r="T2" s="11">
+        <f>S2*1E+24</f>
         <v>94.915827816779711</v>
       </c>
-      <c r="T2" s="2">
-        <f>SQRT(POWER(L2/(K2*P2*B27*B25),2)+POWER(K2*L2/(POWER(K2,2)*P2*B27*B25),2)+POWER(K2*C27/(K2*P2*POWER(B27,2)*B25),2)+POWER(K2*C25/(K2*P2*B27*POWER(B25,2)),2))</f>
+      <c r="U2" s="2">
+        <f>SQRT(POWER(L2/(K2*Q2*B27*B25),2)+POWER(K2*L2/(POWER(K2,2)*Q2*B27*B25),2)+POWER(K2*C27/(K2*Q2*POWER(B27,2)*B25),2)+POWER(K2*C25/(K2*Q2*B27*POWER(B25,2)),2))</f>
         <v>1.1630308720623708E-23</v>
       </c>
-      <c r="U2" s="11">
-        <f>T2*1E+24</f>
+      <c r="V2" s="11">
+        <f>U2*1E+24</f>
         <v>11.630308720623708</v>
       </c>
-      <c r="V2" s="11">
-        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W2,2)*(W2+1/W2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
+      <c r="W2" s="11">
+        <f>0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Y2,2)*(Y2+1/Y2-1+POWER(COS(RADIANS(A2)),2))*1E+24</f>
         <v>7.9384090788001488E-2</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="13">
+        <f>POWER((T2-W2)/V2,2)</f>
+        <v>66.491791437086121</v>
+      </c>
+      <c r="Y2" s="2">
         <f>1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A2))))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1204,39 +1242,47 @@
         <f t="shared" ref="O3:O15" si="4">0.671/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.65789319321946138</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="13">
+        <f t="shared" ref="P3:P15" si="5">POWER((M3-O3)/N3,2)</f>
+        <v>24.056020615694276</v>
+      </c>
+      <c r="Q3" s="4">
         <v>0.40589999999999998</v>
       </c>
-      <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q15" si="5">P3*0.05</f>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R15" si="6">Q3*0.05</f>
         <v>2.0295000000000001E-2</v>
       </c>
-      <c r="R3" s="2">
-        <f>K3/(K2*P3*B27*B25)</f>
+      <c r="S3" s="2">
+        <f>K3/(K2*Q3*B27*B25)</f>
         <v>3.2737149551889501E-26</v>
       </c>
-      <c r="S3" s="11">
-        <f>R3*1E+24</f>
+      <c r="T3" s="11">
+        <f>S3*1E+24</f>
         <v>3.2737149551889499E-2</v>
       </c>
-      <c r="T3" s="2">
-        <f>SQRT(POWER(L3/(K2*P3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*P3*B27*B25),2)+POWER(K3*C27/(K2*P3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*P3*B27*POWER(B25,2)),2)+POWER(K3*Q3/(K2*POWER(P3,2)*B27*B25),2))</f>
+      <c r="U3" s="2">
+        <f>SQRT(POWER(L3/(K2*Q3*B27*B25),2)+POWER(K3*L2/(POWER(K2,2)*Q3*B27*B25),2)+POWER(K3*C27/(K2*Q3*POWER(B27,2)*B25),2)+POWER(K3*C25/(K2*Q3*B27*POWER(B25,2)),2)+POWER(K3*R3/(K2*POWER(Q3,2)*B27*B25),2))</f>
         <v>9.3230385582652125E-27</v>
       </c>
-      <c r="U3" s="11">
-        <f t="shared" ref="U3:U15" si="6">T3*1E+24</f>
+      <c r="V3" s="11">
+        <f>U3*1E+24</f>
         <v>9.3230385582652123E-3</v>
       </c>
-      <c r="V3" s="11">
-        <f t="shared" ref="V3:V15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(W3,2)*(W3+1/W3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W15" si="7">0.5*POWER(1/137,2)*POWER(0.0000000000386,2)*POWER(Y3,2)*(Y3+1/Y3-1+POWER(COS(RADIANS(A3)),2))*1E+24</f>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="W3" s="2">
-        <f t="shared" ref="W3:W15" si="8">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
+      <c r="X3" s="13">
+        <f t="shared" ref="X3:X15" si="8">POWER((T3-W3)/V3,2)</f>
+        <v>20.722450396751544</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y15" si="9">1/(1+(0.000000000000107506/(9.109E-31*POWER(300000000,2)))*(1-COS(RADIANS(A3))))</f>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1266,7 +1312,7 @@
         <v>4103.9246031982575</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J15" si="9">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
+        <f t="shared" ref="J4:J15" si="10">SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C4*H4,2)+POWER(G4*D4,2)))</f>
         <v>1300.3760788032978</v>
       </c>
       <c r="K4" s="2">
@@ -1274,7 +1320,7 @@
         <v>6.8398743386637628</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f>J4/B4</f>
         <v>2.1672934646721629</v>
       </c>
       <c r="M4" s="11">
@@ -1282,46 +1328,54 @@
         <v>0.60872933347197677</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="3"/>
+        <f>SQRT(POWER(F4/11540.4,2)+POWER((-61.6-E4)*1.5454/POWER(11540.4,2),2)+POWER(0.89865/11540.4,2))</f>
         <v>2.5087903814642065E-3</v>
       </c>
       <c r="O4" s="11">
         <f t="shared" si="4"/>
         <v>0.62182355639796505</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="13">
+        <f t="shared" si="5"/>
+        <v>27.241480645072503</v>
+      </c>
+      <c r="Q4" s="4">
         <v>0.43380000000000002</v>
       </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="5"/>
+      <c r="R4" s="4">
+        <f t="shared" si="6"/>
         <v>2.1690000000000001E-2</v>
       </c>
-      <c r="R4" s="2">
-        <f>K4/(K2*P4*B27*B25)</f>
+      <c r="S4" s="2">
+        <f>K4/(K2*Q4*B27*B25)</f>
         <v>3.6947050548532581E-26</v>
       </c>
-      <c r="S4" s="11">
-        <f>R4*1E+24</f>
+      <c r="T4" s="11">
+        <f>S4*1E+24</f>
         <v>3.6947050548532583E-2</v>
       </c>
-      <c r="T4" s="2">
-        <f>SQRT(POWER(L4/(K2*P4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*P4*B27*B25),2)+POWER(K4*C27/(K2*P4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*P4*B27*POWER(B25,2)),2)+POWER(K4*Q4/(K2*POWER(P4,2)*B27*B25),2))</f>
+      <c r="U4" s="2">
+        <f>SQRT(POWER(L4/(K2*Q4*B27*B25),2)+POWER(K4*L2/(POWER(K2,2)*Q4*B27*B25),2)+POWER(K4*C27/(K2*Q4*POWER(B27,2)*B25),2)+POWER(K4*C25/(K2*Q4*B27*POWER(B25,2)),2)+POWER(K4*R4/(K2*POWER(Q4,2)*B27*B25),2))</f>
         <v>1.2551604711800588E-26</v>
       </c>
-      <c r="U4" s="11">
-        <f t="shared" si="6"/>
+      <c r="V4" s="11">
+        <f t="shared" ref="V4:V15" si="11">U4*1E+24</f>
         <v>1.2551604711800588E-2</v>
       </c>
-      <c r="V4" s="11">
+      <c r="W4" s="11">
         <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="13">
         <f t="shared" si="8"/>
+        <v>4.7785539862346171</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="9"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1351,7 +1405,7 @@
         <v>8260.4505931587355</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="9"/>
+        <f>SQRT(2*3.14159*POWER(1/40.96,2)*(POWER(C5*H5,2)+POWER(G5*D5,2)))</f>
         <v>485.57027782532532</v>
       </c>
       <c r="K5" s="2">
@@ -1374,39 +1428,47 @@
         <f t="shared" si="4"/>
         <v>0.57072967889430926</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="13">
+        <f t="shared" si="5"/>
+        <v>16.309474407258804</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0.44819999999999999</v>
       </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="5"/>
+      <c r="R5" s="4">
+        <f t="shared" si="6"/>
         <v>2.2409999999999999E-2</v>
       </c>
-      <c r="R5" s="2">
-        <f>K5/(K2*P5*B27*B25)</f>
+      <c r="S5" s="2">
+        <f>K5/(K2*Q5*B27*B25)</f>
         <v>5.3983756033966313E-26</v>
       </c>
-      <c r="S5" s="11">
-        <f t="shared" ref="S5:S15" si="10">R5*1E+24</f>
+      <c r="T5" s="11">
+        <f t="shared" ref="T5:T15" si="12">S5*1E+24</f>
         <v>5.398375603396631E-2</v>
       </c>
-      <c r="T5" s="2">
-        <f>SQRT(POWER(L5/(K2*P5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*P5*B27*B25),2)+POWER(K5*C27/(K2*P5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*P5*B27*POWER(B25,2)),2)+POWER(K5*Q5/(K2*POWER(P5,2)*B27*B25),2))</f>
+      <c r="U5" s="2">
+        <f>SQRT(POWER(L5/(K2*Q5*B27*B25),2)+POWER(K5*L2/(POWER(K2,2)*Q5*B27*B25),2)+POWER(K5*C27/(K2*Q5*POWER(B27,2)*B25),2)+POWER(K5*C25/(K2*Q5*B27*POWER(B25,2)),2)+POWER(K5*R5/(K2*POWER(Q5,2)*B27*B25),2))</f>
         <v>7.335224078219261E-27</v>
       </c>
-      <c r="U5" s="11">
-        <f t="shared" si="6"/>
+      <c r="V5" s="11">
+        <f t="shared" si="11"/>
         <v>7.3352240782192605E-3</v>
       </c>
-      <c r="V5" s="11">
+      <c r="W5" s="11">
         <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="13">
         <f t="shared" si="8"/>
+        <v>0.16475749717661203</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="9"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1436,7 +1498,7 @@
         <v>8437.0389426077727</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1159.0510407707941</v>
       </c>
       <c r="K6" s="2">
@@ -1459,39 +1521,47 @@
         <f t="shared" si="4"/>
         <v>0.51346870699924607</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="13">
+        <f t="shared" si="5"/>
+        <v>1704.1311979246277</v>
+      </c>
+      <c r="Q6" s="4">
         <v>0.5544</v>
       </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="5"/>
+      <c r="R6" s="4">
+        <f t="shared" si="6"/>
         <v>2.7720000000000002E-2</v>
       </c>
-      <c r="R6" s="2">
-        <f>K6/(K2*P6*B27*B25)</f>
+      <c r="S6" s="2">
+        <f>K6/(K2*Q6*B27*B25)</f>
         <v>2.7431191954753928E-26</v>
       </c>
-      <c r="S6" s="11">
-        <f t="shared" si="10"/>
+      <c r="T6" s="11">
+        <f t="shared" si="12"/>
         <v>2.7431191954753929E-2</v>
       </c>
-      <c r="T6" s="2">
-        <f>SQRT(POWER(L6/(K2*P6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*P6*B27*B25),2)+POWER(K6*C27/(K2*P6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*P6*B27*POWER(B25,2)),2)+POWER(K6*Q6/(K2*POWER(P6,2)*B27*B25),2))</f>
+      <c r="U6" s="2">
+        <f>SQRT(POWER(L6/(K2*Q6*B27*B25),2)+POWER(K6*L2/(POWER(K2,2)*Q6*B27*B25),2)+POWER(K6*C27/(K2*Q6*POWER(B27,2)*B25),2)+POWER(K6*C25/(K2*Q6*B27*POWER(B25,2)),2)+POWER(K6*R6/(K2*POWER(Q6,2)*B27*B25),2))</f>
         <v>5.0491167224065807E-27</v>
       </c>
-      <c r="U6" s="11">
-        <f t="shared" si="6"/>
+      <c r="V6" s="11">
+        <f t="shared" si="11"/>
         <v>5.0491167224065809E-3</v>
       </c>
-      <c r="V6" s="11">
+      <c r="W6" s="11">
         <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="13">
         <f t="shared" si="8"/>
+        <v>4.8547568416668128</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="9"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1521,7 +1591,7 @@
         <v>4454.9572381897351</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>632.72017937414341</v>
       </c>
       <c r="K7" s="2">
@@ -1544,39 +1614,47 @@
         <f t="shared" si="4"/>
         <v>0.45695018268506399</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="13">
+        <f t="shared" si="5"/>
+        <v>1569.8249755175111</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0.60929999999999995</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="5"/>
+      <c r="R7" s="4">
+        <f t="shared" si="6"/>
         <v>3.0464999999999999E-2</v>
       </c>
-      <c r="R7" s="2">
-        <f>K7/(K2*P7*B27*B25)</f>
+      <c r="S7" s="2">
+        <f>K7/(K2*Q7*B27*B25)</f>
         <v>1.1422003844227093E-26</v>
       </c>
-      <c r="S7" s="11">
-        <f t="shared" si="10"/>
+      <c r="T7" s="11">
+        <f t="shared" si="12"/>
         <v>1.1422003844227093E-2</v>
       </c>
-      <c r="T7" s="2">
-        <f>SQRT(POWER(L7/(K2*P7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*P7*B27*B25),2)+POWER(K7*C27/(K2*P7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*P7*B27*POWER(B25,2)),2)+POWER(K7*Q7/(K2*POWER(P7,2)*B27*B25),2))</f>
+      <c r="U7" s="2">
+        <f>SQRT(POWER(L7/(K2*Q7*B27*B25),2)+POWER(K7*L2/(POWER(K2,2)*Q7*B27*B25),2)+POWER(K7*C27/(K2*Q7*POWER(B27,2)*B25),2)+POWER(K7*C25/(K2*Q7*B27*POWER(B25,2)),2)+POWER(K7*R7/(K2*POWER(Q7,2)*B27*B25),2))</f>
         <v>2.142317093885457E-27</v>
       </c>
-      <c r="U7" s="11">
-        <f t="shared" si="6"/>
+      <c r="V7" s="11">
+        <f t="shared" si="11"/>
         <v>2.1423170938854571E-3</v>
       </c>
-      <c r="V7" s="11">
+      <c r="W7" s="11">
         <f t="shared" si="7"/>
         <v>2.8763760580229697E-2</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="13">
         <f t="shared" si="8"/>
+        <v>65.526756797791705</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="9"/>
         <v>0.68099878194495367</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1606,7 +1684,7 @@
         <v>2541.508956638771</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1744.3353668580341</v>
       </c>
       <c r="K8" s="2">
@@ -1629,39 +1707,47 @@
         <f t="shared" si="4"/>
         <v>0.40527245200170919</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="13">
+        <f t="shared" si="5"/>
+        <v>155.15193140016973</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0.66239999999999999</v>
       </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="5"/>
+      <c r="R8" s="4">
+        <f t="shared" si="6"/>
         <v>3.3120000000000004E-2</v>
       </c>
-      <c r="R8" s="2">
-        <f>K8/(K2*P8*B27*B25)</f>
+      <c r="S8" s="2">
+        <f>K8/(K2*Q8*B27*B25)</f>
         <v>4.9948219907725327E-27</v>
       </c>
-      <c r="S8" s="11">
-        <f t="shared" si="10"/>
+      <c r="T8" s="11">
+        <f t="shared" si="12"/>
         <v>4.9948219907725326E-3</v>
       </c>
-      <c r="T8" s="2">
-        <f>SQRT(POWER(L8/(K2*P8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*P8*B27*B25),2)+POWER(K8*C27/(K2*P8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*P8*B27*POWER(B25,2)),2)+POWER(K8*Q8/(K2*POWER(P8,2)*B27*B25),2))</f>
+      <c r="U8" s="2">
+        <f>SQRT(POWER(L8/(K2*Q8*B27*B25),2)+POWER(K8*L2/(POWER(K2,2)*Q8*B27*B25),2)+POWER(K8*C27/(K2*Q8*POWER(B27,2)*B25),2)+POWER(K8*C25/(K2*Q8*B27*POWER(B25,2)),2)+POWER(K8*R8/(K2*POWER(Q8,2)*B27*B25),2))</f>
         <v>3.4823189490117849E-27</v>
       </c>
-      <c r="U8" s="11">
-        <f t="shared" si="6"/>
+      <c r="V8" s="11">
+        <f t="shared" si="11"/>
         <v>3.4823189490117848E-3</v>
       </c>
-      <c r="V8" s="11">
+      <c r="W8" s="11">
         <f t="shared" si="7"/>
         <v>2.18590607833666E-2</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="13">
         <f t="shared" si="8"/>
+        <v>23.452891478472537</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="9"/>
         <v>0.60398278986841902</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1714,39 +1800,47 @@
         <f t="shared" si="4"/>
         <v>0.36020200208327863</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="13">
+        <f t="shared" si="5"/>
+        <v>1143.293498131201</v>
+      </c>
+      <c r="Q9" s="4">
         <v>0.69750000000000001</v>
       </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="5"/>
+      <c r="R9" s="4">
+        <f t="shared" si="6"/>
         <v>3.4875000000000003E-2</v>
       </c>
-      <c r="R9" s="2">
-        <f>K9/(K2*P9*B27*B25)</f>
+      <c r="S9" s="2">
+        <f>K9/(K2*Q9*B27*B25)</f>
         <v>9.3443742971944116E-28</v>
       </c>
-      <c r="S9" s="11">
-        <f t="shared" si="10"/>
+      <c r="T9" s="11">
+        <f t="shared" si="12"/>
         <v>9.3443742971944111E-4</v>
       </c>
-      <c r="T9" s="2">
-        <f>SQRT(POWER(L9/(K2*P9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*P9*B27*B25),2)+POWER(K9*C27/(K2*P9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*P9*B27*POWER(B25,2)),2)+POWER(K9*Q9/(K2*POWER(P9,2)*B27*B25),2))</f>
+      <c r="U9" s="2">
+        <f>SQRT(POWER(L9/(K2*Q9*B27*B25),2)+POWER(K9*L2/(POWER(K2,2)*Q9*B27*B25),2)+POWER(K9*C27/(K2*Q9*POWER(B27,2)*B25),2)+POWER(K9*C25/(K2*Q9*B27*POWER(B25,2)),2)+POWER(K9*R9/(K2*POWER(Q9,2)*B27*B25),2))</f>
         <v>5.3948840013832891E-28</v>
       </c>
-      <c r="U9" s="11">
-        <f t="shared" si="6"/>
+      <c r="V9" s="11">
+        <f t="shared" si="11"/>
         <v>5.3948840013832891E-4</v>
       </c>
-      <c r="V9" s="11">
+      <c r="W9" s="11">
         <f t="shared" si="7"/>
         <v>1.7347295999573225E-2</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="13">
         <f t="shared" si="8"/>
+        <v>925.55926424618781</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="9"/>
         <v>0.53681371398402178</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1776,7 +1870,7 @@
         <v>2454.9296637709926</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2813.5676395888436</v>
       </c>
       <c r="K10" s="2">
@@ -1799,39 +1893,47 @@
         <f t="shared" si="4"/>
         <v>0.32203280762368441</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="13">
+        <f t="shared" si="5"/>
+        <v>100.14093860443106</v>
+      </c>
+      <c r="Q10" s="4">
         <v>0.73260000000000003</v>
       </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="5"/>
+      <c r="R10" s="4">
+        <f t="shared" si="6"/>
         <v>3.6630000000000003E-2</v>
       </c>
-      <c r="R10" s="2">
-        <f>K10/(K2*P10*B27*B25)</f>
+      <c r="S10" s="2">
+        <f>K10/(K2*Q10*B27*B25)</f>
         <v>1.0905883204638855E-27</v>
       </c>
-      <c r="S10" s="11">
-        <f t="shared" si="10"/>
+      <c r="T10" s="11">
+        <f t="shared" si="12"/>
         <v>1.0905883204638854E-3</v>
       </c>
-      <c r="T10" s="2">
-        <f>SQRT(POWER(L10/(K2*P10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*P10*B27*B25),2)+POWER(K10*C27/(K2*P10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*P10*B27*POWER(B25,2)),2)+POWER(K10*Q10/(K2*POWER(P10,2)*B27*B25),2))</f>
+      <c r="U10" s="2">
+        <f>SQRT(POWER(L10/(K2*Q10*B27*B25),2)+POWER(K10*L2/(POWER(K2,2)*Q10*B27*B25),2)+POWER(K10*C27/(K2*Q10*POWER(B27,2)*B25),2)+POWER(K10*C25/(K2*Q10*B27*POWER(B25,2)),2)+POWER(K10*R10/(K2*POWER(Q10,2)*B27*B25),2))</f>
         <v>1.2570312817279003E-27</v>
       </c>
-      <c r="U10" s="11">
-        <f t="shared" si="6"/>
+      <c r="V10" s="11">
+        <f t="shared" si="11"/>
         <v>1.2570312817279004E-3</v>
       </c>
-      <c r="V10" s="11">
+      <c r="W10" s="11">
         <f t="shared" si="7"/>
         <v>1.4570392197332485E-2</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="13">
         <f t="shared" si="8"/>
+        <v>114.99394579666694</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="9"/>
         <v>0.4799296685896936</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1861,7 +1963,7 @@
         <v>3949.1012714286776</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3663.9370993803864</v>
       </c>
       <c r="K11" s="2">
@@ -1884,39 +1986,47 @@
         <f t="shared" si="4"/>
         <v>0.29030620042535898</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="13">
+        <f t="shared" si="5"/>
+        <v>18.615000775043182</v>
+      </c>
+      <c r="Q11" s="4">
         <v>0.76590000000000003</v>
       </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="5"/>
+      <c r="R11" s="4">
+        <f t="shared" si="6"/>
         <v>3.8295000000000003E-2</v>
       </c>
-      <c r="R11" s="2">
-        <f>K11/(K2*P11*B27*B25)</f>
+      <c r="S11" s="2">
+        <f>K11/(K2*Q11*B27*B25)</f>
         <v>1.1187257782667118E-27</v>
       </c>
-      <c r="S11" s="11">
-        <f t="shared" si="10"/>
+      <c r="T11" s="11">
+        <f t="shared" si="12"/>
         <v>1.1187257782667118E-3</v>
       </c>
-      <c r="T11" s="2">
-        <f>SQRT(POWER(L11/(K2*P11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*P11*B27*B25),2)+POWER(K11*C27/(K2*P11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*P11*B27*POWER(B25,2)),2)+POWER(K11*Q11/(K2*POWER(P11,2)*B27*B25),2))</f>
+      <c r="U11" s="2">
+        <f>SQRT(POWER(L11/(K2*Q11*B27*B25),2)+POWER(K11*L2/(POWER(K2,2)*Q11*B27*B25),2)+POWER(K11*C27/(K2*Q11*POWER(B27,2)*B25),2)+POWER(K11*C25/(K2*Q11*B27*POWER(B25,2)),2)+POWER(K11*R11/(K2*POWER(Q11,2)*B27*B25),2))</f>
         <v>1.0469516326944308E-27</v>
       </c>
-      <c r="U11" s="11">
-        <f t="shared" si="6"/>
+      <c r="V11" s="11">
+        <f t="shared" si="11"/>
         <v>1.0469516326944309E-3</v>
       </c>
-      <c r="V11" s="11">
+      <c r="W11" s="11">
         <f t="shared" si="7"/>
         <v>1.2957388325761274E-2</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="13">
         <f t="shared" si="8"/>
+        <v>127.86510687089779</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="9"/>
         <v>0.43264709452363481</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>-10</v>
       </c>
@@ -1946,7 +2056,7 @@
         <v>18.297372134349907</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.162236819594124</v>
       </c>
       <c r="K12" s="2">
@@ -1969,39 +2079,47 @@
         <f t="shared" si="4"/>
         <v>0.65789319321946138</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="13">
+        <f t="shared" si="5"/>
+        <v>796931.44376964134</v>
+      </c>
+      <c r="Q12" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="5"/>
+      <c r="R12" s="4">
+        <f t="shared" si="6"/>
         <v>2.3040000000000001E-2</v>
       </c>
-      <c r="R12" s="2">
-        <f>K12/(K2*P12*B27*B25)</f>
+      <c r="S12" s="2">
+        <f>K12/(K2*Q12*B27*B25)</f>
         <v>4.6522972380131278E-28</v>
       </c>
-      <c r="S12" s="11">
-        <f t="shared" si="10"/>
+      <c r="T12" s="11">
+        <f t="shared" si="12"/>
         <v>4.6522972380131278E-4</v>
       </c>
-      <c r="T12" s="2">
-        <f>SQRT(POWER(L12/(K2*P12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*P12*B27*B25),2)+POWER(K12*C27/(K2*P12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*P12*B27*POWER(B25,2)),2)+POWER(K12*Q12/(K2*POWER(P12,2)*B27*B25),2))</f>
+      <c r="U12" s="2">
+        <f>SQRT(POWER(L12/(K2*Q12*B27*B25),2)+POWER(K12*L2/(POWER(K2,2)*Q12*B27*B25),2)+POWER(K12*C27/(K2*Q12*POWER(B27,2)*B25),2)+POWER(K12*C25/(K2*Q12*B27*POWER(B25,2)),2)+POWER(K12*R12/(K2*POWER(Q12,2)*B27*B25),2))</f>
         <v>2.8947741091633904E-28</v>
       </c>
-      <c r="U12" s="11">
-        <f t="shared" si="6"/>
+      <c r="V12" s="11">
+        <f t="shared" si="11"/>
         <v>2.8947741091633905E-4</v>
       </c>
-      <c r="V12" s="11">
+      <c r="W12" s="11">
         <f t="shared" si="7"/>
         <v>7.517740944578237E-2</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="13">
         <f t="shared" si="8"/>
+        <v>66612.150547555881</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="9"/>
         <v>0.98046675591573962</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>-20</v>
       </c>
@@ -2031,7 +2149,7 @@
         <v>4630.1292600338747</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>550.95652358657924</v>
       </c>
       <c r="K13" s="2">
@@ -2054,39 +2172,47 @@
         <f t="shared" si="4"/>
         <v>0.62182355639796505</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="13">
+        <f t="shared" si="5"/>
+        <v>4679.2816321511382</v>
+      </c>
+      <c r="Q13" s="4">
         <v>0.48780000000000001</v>
       </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="5"/>
+      <c r="R13" s="4">
+        <f t="shared" si="6"/>
         <v>2.4390000000000002E-2</v>
       </c>
-      <c r="R13" s="2">
-        <f>K13/(K2*P13*B27*B25)</f>
+      <c r="S13" s="2">
+        <f>K13/(K2*Q13*B27*B25)</f>
         <v>3.7069887543372372E-26</v>
       </c>
-      <c r="S13" s="11">
-        <f t="shared" si="10"/>
+      <c r="T13" s="11">
+        <f t="shared" si="12"/>
         <v>3.7069887543372371E-2</v>
       </c>
-      <c r="T13" s="2">
-        <f>SQRT(POWER(L13/(K2*P13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*P13*B27*B25),2)+POWER(K13*C27/(K2*P13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*P13*B27*POWER(B25,2)),2)+POWER(K13*Q13/(K2*POWER(P13,2)*B27*B25),2))</f>
+      <c r="U13" s="2">
+        <f>SQRT(POWER(L13/(K2*Q13*B27*B25),2)+POWER(K13*L2/(POWER(K2,2)*Q13*B27*B25),2)+POWER(K13*C27/(K2*Q13*POWER(B27,2)*B25),2)+POWER(K13*C25/(K2*Q13*B27*POWER(B25,2)),2)+POWER(K13*R13/(K2*POWER(Q13,2)*B27*B25),2))</f>
         <v>6.3309309497330632E-27</v>
       </c>
-      <c r="U13" s="11">
-        <f t="shared" si="6"/>
+      <c r="V13" s="11">
+        <f t="shared" si="11"/>
         <v>6.3309309497330633E-3</v>
       </c>
-      <c r="V13" s="11">
+      <c r="W13" s="11">
         <f t="shared" si="7"/>
         <v>6.4384737830657068E-2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="13">
         <f t="shared" si="8"/>
+        <v>18.614976634059662</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="9"/>
         <v>0.92671170849175111</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>-30</v>
       </c>
@@ -2116,7 +2242,7 @@
         <v>2956.658282151835</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2494.0583918090688</v>
       </c>
       <c r="K14" s="2">
@@ -2139,39 +2265,47 @@
         <f t="shared" si="4"/>
         <v>0.57072967889430926</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="13">
+        <f t="shared" si="5"/>
+        <v>45.460465597922337</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0.46079999999999999</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="5"/>
+      <c r="R14" s="4">
+        <f t="shared" si="6"/>
         <v>2.3040000000000001E-2</v>
       </c>
-      <c r="R14" s="2">
-        <f>K14/(K2*P14*B27*B25)</f>
+      <c r="S14" s="2">
+        <f>K14/(K2*Q14*B27*B25)</f>
         <v>1.8794028261004614E-26</v>
       </c>
-      <c r="S14" s="11">
-        <f t="shared" si="10"/>
+      <c r="T14" s="11">
+        <f t="shared" si="12"/>
         <v>1.8794028261004615E-2</v>
       </c>
-      <c r="T14" s="2">
-        <f>SQRT(POWER(L14/(K2*P14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*P14*B27*B25),2)+POWER(K14*C27/(K2*P14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*P14*B27*POWER(B25,2)),2))+POWER(K14*Q14/(K2*POWER(P14,2)*B27*B25),2)</f>
+      <c r="U14" s="2">
+        <f>SQRT(POWER(L14/(K2*Q14*B27*B25),2)+POWER(K14*L2/(POWER(K2,2)*Q14*B27*B25),2)+POWER(K14*C27/(K2*Q14*POWER(B27,2)*B25),2)+POWER(K14*C25/(K2*Q14*B27*POWER(B25,2)),2))+POWER(K14*R14/(K2*POWER(Q14,2)*B27*B25),2)</f>
         <v>1.599223416328665E-26</v>
       </c>
-      <c r="U14" s="11">
-        <f t="shared" si="6"/>
+      <c r="V14" s="11">
+        <f t="shared" si="11"/>
         <v>1.5992234163286649E-2</v>
       </c>
-      <c r="V14" s="11">
+      <c r="W14" s="11">
         <f t="shared" si="7"/>
         <v>5.1006364300052669E-2</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="13">
         <f t="shared" si="8"/>
+        <v>4.0571976152515274</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="9"/>
         <v>0.85056584037900029</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>-40</v>
       </c>
@@ -2201,7 +2335,7 @@
         <v>2926.4483603959006</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2006.188194800844</v>
       </c>
       <c r="K15" s="2">
@@ -2224,39 +2358,47 @@
         <f t="shared" si="4"/>
         <v>0.51346870699924607</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="13">
+        <f t="shared" si="5"/>
+        <v>17.514794551499104</v>
+      </c>
+      <c r="Q15" s="4">
         <v>0.504</v>
       </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="5"/>
+      <c r="R15" s="4">
+        <f t="shared" si="6"/>
         <v>2.52E-2</v>
       </c>
-      <c r="R15" s="2">
-        <f>K15/(K2*P15*B27*B25)</f>
+      <c r="S15" s="2">
+        <f>K15/(K2*Q15*B27*B25)</f>
         <v>1.0466179425310431E-26</v>
       </c>
-      <c r="S15" s="11">
-        <f t="shared" si="10"/>
+      <c r="T15" s="11">
+        <f t="shared" si="12"/>
         <v>1.046617942531043E-2</v>
       </c>
-      <c r="T15" s="2">
-        <f>SQRT(POWER(L15/(K2*P15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*P15*B27*B25),2)+POWER(K15*C27/(K2*P15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*P15*B27*POWER(B25,2)),2)+POWER(K15*Q15/(K2*POWER(P15,2)*B27*B25),2))</f>
+      <c r="U15" s="2">
+        <f>SQRT(POWER(L15/(K2*Q15*B27*B25),2)+POWER(K15*L2/(POWER(K2,2)*Q15*B27*B25),2)+POWER(K15*C27/(K2*Q15*POWER(B27,2)*B25),2)+POWER(K15*C25/(K2*Q15*B27*POWER(B25,2)),2)+POWER(K15*R15/(K2*POWER(Q15,2)*B27*B25),2))</f>
         <v>7.2886124499390246E-27</v>
       </c>
-      <c r="U15" s="11">
-        <f t="shared" si="6"/>
+      <c r="V15" s="11">
+        <f t="shared" si="11"/>
         <v>7.2886124499390243E-3</v>
       </c>
-      <c r="V15" s="11">
+      <c r="W15" s="11">
         <f t="shared" si="7"/>
         <v>3.8556169723405753E-2</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="13">
         <f t="shared" si="8"/>
+        <v>14.85297538523657</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="9"/>
         <v>0.76522907153389874</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2283,6 +2425,12 @@
       <c r="B18">
         <v>2.7</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
@@ -2292,6 +2440,20 @@
         <f>6.022E+23</f>
         <v>6.0220000000000003E+23</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4">
+        <f>SUM(P2:P15)</f>
+        <v>806432.96466296609</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="4">
+        <f>SUM(X3:X15)</f>
+        <v>67937.594181102264</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
@@ -2301,6 +2463,18 @@
         <f>26.98</f>
         <v>26.98</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
@@ -2308,6 +2482,20 @@
       </c>
       <c r="B21">
         <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <f>H19/H20</f>
+        <v>57602.354618783291</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21">
+        <f>K19/K20</f>
+        <v>5225.968783161713</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>43</v>
